--- a/Dokumenty/Titulní strany a příprava R.xlsx
+++ b/Dokumenty/Titulní strany a příprava R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\R-built Tool\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA5353-637A-4DC5-BC7C-EE16CDA89E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819B7BF-8DF2-4AA4-9C08-1A9CA4170E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="150" windowWidth="23295" windowHeight="15450" tabRatio="994" activeTab="21" xr2:uid="{9B3BB66C-1C65-440B-8A35-0FEC1225EBA3}"/>
+    <workbookView xWindow="30030" yWindow="1890" windowWidth="21600" windowHeight="11325" tabRatio="994" activeTab="21" xr2:uid="{9B3BB66C-1C65-440B-8A35-0FEC1225EBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ZAD" sheetId="8" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="519">
   <si>
     <t>Telefon</t>
   </si>
@@ -3053,6 +3053,9 @@
   </si>
   <si>
     <t>interní číslo</t>
+  </si>
+  <si>
+    <t>nenach8zi</t>
   </si>
 </sst>
 </file>
@@ -6589,6 +6592,12 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6598,6 +6607,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6642,51 +6690,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
@@ -6776,20 +6779,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6821,66 +6824,6 @@
     <xf numFmtId="14" fontId="38" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="18" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="18" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="18" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="18" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="64" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6898,6 +6841,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="64" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="18" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="18" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="18" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="18" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9173,7 +9176,7 @@
       </c>
       <c r="G5" s="510">
         <f ca="1">TODAY()</f>
-        <v>44755</v>
+        <v>44761</v>
       </c>
       <c r="H5" s="510"/>
       <c r="I5" s="74"/>
@@ -10002,67 +10005,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="531" t="s">
+      <c r="A1" s="511" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="532"/>
-      <c r="C1" s="532"/>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
-      <c r="M1" s="532"/>
-      <c r="N1" s="532"/>
-      <c r="O1" s="532"/>
-      <c r="P1" s="532"/>
-      <c r="Q1" s="533"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="512"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
+      <c r="L1" s="512"/>
+      <c r="M1" s="512"/>
+      <c r="N1" s="512"/>
+      <c r="O1" s="512"/>
+      <c r="P1" s="512"/>
+      <c r="Q1" s="513"/>
     </row>
     <row r="2" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="534" t="s">
+      <c r="A2" s="514" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
-      <c r="M2" s="535"/>
-      <c r="N2" s="535"/>
-      <c r="O2" s="535"/>
-      <c r="P2" s="535"/>
-      <c r="Q2" s="536"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
+      <c r="E2" s="515"/>
+      <c r="F2" s="515"/>
+      <c r="G2" s="515"/>
+      <c r="H2" s="515"/>
+      <c r="I2" s="515"/>
+      <c r="J2" s="515"/>
+      <c r="K2" s="515"/>
+      <c r="L2" s="515"/>
+      <c r="M2" s="515"/>
+      <c r="N2" s="515"/>
+      <c r="O2" s="515"/>
+      <c r="P2" s="515"/>
+      <c r="Q2" s="516"/>
     </row>
     <row r="3" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="537" t="s">
+      <c r="A3" s="517" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="538"/>
-      <c r="E3" s="538"/>
-      <c r="F3" s="538"/>
-      <c r="G3" s="538"/>
-      <c r="H3" s="538"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="538"/>
-      <c r="K3" s="538"/>
-      <c r="L3" s="538"/>
-      <c r="M3" s="538"/>
-      <c r="N3" s="538"/>
-      <c r="O3" s="538"/>
-      <c r="P3" s="538"/>
-      <c r="Q3" s="539"/>
+      <c r="B3" s="518"/>
+      <c r="C3" s="518"/>
+      <c r="D3" s="518"/>
+      <c r="E3" s="518"/>
+      <c r="F3" s="518"/>
+      <c r="G3" s="518"/>
+      <c r="H3" s="518"/>
+      <c r="I3" s="518"/>
+      <c r="J3" s="518"/>
+      <c r="K3" s="518"/>
+      <c r="L3" s="518"/>
+      <c r="M3" s="518"/>
+      <c r="N3" s="518"/>
+      <c r="O3" s="518"/>
+      <c r="P3" s="518"/>
+      <c r="Q3" s="519"/>
     </row>
     <row r="4" spans="1:17" s="142" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="116"/>
@@ -10084,25 +10087,25 @@
       <c r="Q4" s="116"/>
     </row>
     <row r="5" spans="1:17" s="142" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="520" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="540"/>
-      <c r="M5" s="540"/>
-      <c r="N5" s="540"/>
-      <c r="O5" s="540"/>
-      <c r="P5" s="540"/>
-      <c r="Q5" s="540"/>
+      <c r="B5" s="520"/>
+      <c r="C5" s="520"/>
+      <c r="D5" s="520"/>
+      <c r="E5" s="520"/>
+      <c r="F5" s="520"/>
+      <c r="G5" s="520"/>
+      <c r="H5" s="520"/>
+      <c r="I5" s="520"/>
+      <c r="J5" s="520"/>
+      <c r="K5" s="520"/>
+      <c r="L5" s="520"/>
+      <c r="M5" s="520"/>
+      <c r="N5" s="520"/>
+      <c r="O5" s="520"/>
+      <c r="P5" s="520"/>
+      <c r="Q5" s="520"/>
     </row>
     <row r="6" spans="1:17" s="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="117"/>
@@ -10124,52 +10127,52 @@
       <c r="Q6" s="117"/>
     </row>
     <row r="7" spans="1:17" s="142" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="519" t="s">
+      <c r="A7" s="521" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="519"/>
-      <c r="C7" s="519"/>
-      <c r="D7" s="519"/>
-      <c r="E7" s="519"/>
-      <c r="F7" s="519"/>
-      <c r="G7" s="519"/>
-      <c r="H7" s="520" t="str">
+      <c r="B7" s="521"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="521"/>
+      <c r="G7" s="521"/>
+      <c r="H7" s="522" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="I7" s="520"/>
-      <c r="J7" s="520"/>
-      <c r="K7" s="520"/>
-      <c r="L7" s="520"/>
-      <c r="M7" s="520"/>
-      <c r="N7" s="520"/>
-      <c r="O7" s="520"/>
-      <c r="P7" s="520"/>
-      <c r="Q7" s="520"/>
+      <c r="I7" s="522"/>
+      <c r="J7" s="522"/>
+      <c r="K7" s="522"/>
+      <c r="L7" s="522"/>
+      <c r="M7" s="522"/>
+      <c r="N7" s="522"/>
+      <c r="O7" s="522"/>
+      <c r="P7" s="522"/>
+      <c r="Q7" s="522"/>
     </row>
     <row r="8" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="519" t="s">
+      <c r="A8" s="521" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="519"/>
-      <c r="C8" s="519"/>
-      <c r="D8" s="519"/>
-      <c r="E8" s="519"/>
-      <c r="F8" s="519"/>
-      <c r="G8" s="519"/>
-      <c r="H8" s="520" t="str">
+      <c r="B8" s="521"/>
+      <c r="C8" s="521"/>
+      <c r="D8" s="521"/>
+      <c r="E8" s="521"/>
+      <c r="F8" s="521"/>
+      <c r="G8" s="521"/>
+      <c r="H8" s="522" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="I8" s="520"/>
-      <c r="J8" s="520"/>
-      <c r="K8" s="520"/>
-      <c r="L8" s="520"/>
-      <c r="M8" s="520"/>
-      <c r="N8" s="520"/>
-      <c r="O8" s="520"/>
-      <c r="P8" s="520"/>
-      <c r="Q8" s="520"/>
+      <c r="I8" s="522"/>
+      <c r="J8" s="522"/>
+      <c r="K8" s="522"/>
+      <c r="L8" s="522"/>
+      <c r="M8" s="522"/>
+      <c r="N8" s="522"/>
+      <c r="O8" s="522"/>
+      <c r="P8" s="522"/>
+      <c r="Q8" s="522"/>
     </row>
     <row r="9" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="118"/>
@@ -10191,25 +10194,25 @@
       <c r="Q9" s="118"/>
     </row>
     <row r="10" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="521" t="s">
+      <c r="A10" s="523" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="521"/>
-      <c r="C10" s="521"/>
-      <c r="D10" s="521"/>
-      <c r="E10" s="521"/>
-      <c r="F10" s="521"/>
-      <c r="G10" s="521"/>
-      <c r="H10" s="521"/>
-      <c r="I10" s="521"/>
-      <c r="J10" s="521"/>
-      <c r="K10" s="521"/>
-      <c r="L10" s="521"/>
-      <c r="M10" s="521"/>
-      <c r="N10" s="521"/>
-      <c r="O10" s="521"/>
-      <c r="P10" s="521"/>
-      <c r="Q10" s="521"/>
+      <c r="B10" s="523"/>
+      <c r="C10" s="523"/>
+      <c r="D10" s="523"/>
+      <c r="E10" s="523"/>
+      <c r="F10" s="523"/>
+      <c r="G10" s="523"/>
+      <c r="H10" s="523"/>
+      <c r="I10" s="523"/>
+      <c r="J10" s="523"/>
+      <c r="K10" s="523"/>
+      <c r="L10" s="523"/>
+      <c r="M10" s="523"/>
+      <c r="N10" s="523"/>
+      <c r="O10" s="523"/>
+      <c r="P10" s="523"/>
+      <c r="Q10" s="523"/>
     </row>
     <row r="11" spans="1:17" s="142" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="119"/>
@@ -10231,37 +10234,37 @@
       <c r="Q11" s="116"/>
     </row>
     <row r="12" spans="1:17" s="142" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="522" t="s">
+      <c r="A12" s="524" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="523"/>
-      <c r="C12" s="526" t="s">
+      <c r="B12" s="525"/>
+      <c r="C12" s="528" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="526"/>
-      <c r="E12" s="526" t="s">
+      <c r="D12" s="528"/>
+      <c r="E12" s="528" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="526"/>
-      <c r="G12" s="526"/>
-      <c r="H12" s="526"/>
-      <c r="I12" s="526"/>
-      <c r="J12" s="527"/>
-      <c r="K12" s="528"/>
-      <c r="L12" s="526"/>
-      <c r="M12" s="526"/>
-      <c r="N12" s="526"/>
-      <c r="O12" s="526"/>
+      <c r="F12" s="528"/>
+      <c r="G12" s="528"/>
+      <c r="H12" s="528"/>
+      <c r="I12" s="528"/>
+      <c r="J12" s="529"/>
+      <c r="K12" s="530"/>
+      <c r="L12" s="528"/>
+      <c r="M12" s="528"/>
+      <c r="N12" s="528"/>
+      <c r="O12" s="528"/>
       <c r="P12" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="Q12" s="529" t="s">
+      <c r="Q12" s="531" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="524"/>
-      <c r="B13" s="525"/>
+      <c r="A13" s="526"/>
+      <c r="B13" s="527"/>
       <c r="C13" s="121" t="s">
         <v>140</v>
       </c>
@@ -10304,13 +10307,13 @@
       <c r="P13" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="530"/>
+      <c r="Q13" s="532"/>
     </row>
     <row r="14" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="511" t="s">
+      <c r="A14" s="533" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="512"/>
+      <c r="B14" s="534"/>
       <c r="C14" s="124" t="s">
         <v>155</v>
       </c>
@@ -10358,10 +10361,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="513" t="s">
+      <c r="A15" s="535" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="514"/>
+      <c r="B15" s="536"/>
       <c r="C15" s="128" t="s">
         <v>159</v>
       </c>
@@ -10409,8 +10412,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="515"/>
-      <c r="B16" s="516"/>
+      <c r="A16" s="537"/>
+      <c r="B16" s="538"/>
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -10428,8 +10431,8 @@
       <c r="Q16" s="136"/>
     </row>
     <row r="17" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="515"/>
-      <c r="B17" s="516"/>
+      <c r="A17" s="537"/>
+      <c r="B17" s="538"/>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
@@ -10447,8 +10450,8 @@
       <c r="Q17" s="136"/>
     </row>
     <row r="18" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="517"/>
-      <c r="B18" s="518"/>
+      <c r="A18" s="539"/>
+      <c r="B18" s="540"/>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
       <c r="E18" s="138"/>
@@ -10756,12 +10759,11 @@
     <row r="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="H8:Q8"/>
     <mergeCell ref="A10:Q10"/>
@@ -10769,11 +10771,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:O12"/>
     <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -10804,60 +10807,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -10980,16 +10983,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -11040,18 +11043,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -11072,48 +11075,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="436" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="452"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="453"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="451"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="453"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="437"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="437"/>
+      <c r="J20" s="438"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="451"/>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="453"/>
+      <c r="A21" s="436"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="438"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -11224,18 +11227,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -11256,34 +11259,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="454" t="str">
+      <c r="A31" s="439" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -11304,18 +11307,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="433" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -11336,34 +11339,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="454" t="str">
+      <c r="A36" s="439" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -11510,12 +11513,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="449" t="str">
+      <c r="C47" s="431" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D47" s="449"/>
-      <c r="E47" s="449"/>
+      <c r="D47" s="431"/>
+      <c r="E47" s="431"/>
       <c r="F47" s="22"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -11531,12 +11534,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="449" t="str">
+      <c r="C48" s="431" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -11552,12 +11555,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="450" t="str">
+      <c r="C49" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="450"/>
-      <c r="E49" s="450"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -11596,6 +11599,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
@@ -11605,12 +11614,6 @@
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A36:J37"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -11652,10 +11655,10 @@
       <c r="J1" s="467"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="439"/>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
+      <c r="A2" s="454"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
       <c r="E2" s="468" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
@@ -16277,17 +16280,17 @@
     <row r="68" s="143" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
@@ -16752,6 +16755,18 @@
     <row r="41" spans="1:5" s="395" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="A26:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="A36:C39"/>
+    <mergeCell ref="D38:E39"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="B3:C4"/>
@@ -16764,18 +16779,6 @@
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="A16:C19"/>
     <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="A26:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="A36:C39"/>
-    <mergeCell ref="D38:E39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18006,60 +18009,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -18182,16 +18185,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -18242,18 +18245,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -18274,48 +18277,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="436" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="452"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="453"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="451"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="453"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="437"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="437"/>
+      <c r="J20" s="438"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="451"/>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="453"/>
+      <c r="A21" s="436"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="438"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -18426,18 +18429,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -18458,34 +18461,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="454" t="str">
+      <c r="A31" s="439" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -18506,18 +18509,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="433" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -18538,34 +18541,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="454" t="str">
+      <c r="A36" s="439" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -18733,12 +18736,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="449" t="str">
+      <c r="C48" s="431" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -18754,12 +18757,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="450" t="str">
+      <c r="C49" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="450"/>
-      <c r="E49" s="450"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -18798,6 +18801,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="A17:J17"/>
@@ -18806,12 +18815,6 @@
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A36:J37"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -18828,7 +18831,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18879,6 +18882,9 @@
       <c r="C3" s="568"/>
       <c r="D3" s="568"/>
       <c r="E3" s="569"/>
+      <c r="G3" s="381" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="374">
@@ -19142,60 +19148,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -19318,16 +19324,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -19378,18 +19384,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -19410,48 +19416,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="436" t="s">
         <v>504</v>
       </c>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="452"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="453"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="451"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="453"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="437"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="437"/>
+      <c r="J20" s="438"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="451"/>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="453"/>
+      <c r="A21" s="436"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="438"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -19562,18 +19568,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -19594,34 +19600,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="454" t="str">
+      <c r="A31" s="439" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -19642,18 +19648,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="433" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -19674,34 +19680,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="454" t="str">
+      <c r="A36" s="439" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -19869,12 +19875,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="449" t="str">
+      <c r="C48" s="431" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -19890,12 +19896,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="450" t="str">
+      <c r="C49" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="450"/>
-      <c r="E49" s="450"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -19934,6 +19940,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="A17:J17"/>
@@ -19942,12 +19954,6 @@
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A36:J37"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -20170,60 +20176,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -20346,16 +20352,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -20406,18 +20412,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -20438,48 +20444,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="436" t="s">
         <v>505</v>
       </c>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="452"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="453"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="451"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="453"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="437"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="437"/>
+      <c r="J20" s="438"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="451"/>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="453"/>
+      <c r="A21" s="436"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="438"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -20590,18 +20596,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -20622,34 +20628,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="454" t="str">
+      <c r="A31" s="439" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -20670,18 +20676,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="433" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -20702,34 +20708,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="454" t="str">
+      <c r="A36" s="439" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -20897,12 +20903,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="449" t="str">
+      <c r="C48" s="431" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -20918,12 +20924,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="450" t="str">
+      <c r="C49" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="450"/>
-      <c r="E49" s="450"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -20965,6 +20971,12 @@
     <protectedRange sqref="A1:J51" name="Oblast1"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="A17:J17"/>
@@ -20973,12 +20985,6 @@
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A36:J37"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -21020,10 +21026,10 @@
       <c r="J1" s="467"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="439"/>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
+      <c r="A2" s="454"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
       <c r="E2" s="468" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
@@ -21454,60 +21460,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -21630,16 +21636,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -21690,18 +21696,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -21722,48 +21728,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="436" t="s">
         <v>501</v>
       </c>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="452"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="453"/>
+      <c r="B19" s="437"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="437"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="437"/>
+      <c r="G19" s="437"/>
+      <c r="H19" s="437"/>
+      <c r="I19" s="437"/>
+      <c r="J19" s="438"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="451"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="453"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="437"/>
+      <c r="C20" s="437"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="437"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="437"/>
+      <c r="I20" s="437"/>
+      <c r="J20" s="438"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="451"/>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="453"/>
+      <c r="A21" s="436"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
+      <c r="J21" s="438"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -21784,76 +21790,76 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="457"/>
-      <c r="B23" s="458"/>
-      <c r="C23" s="458"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="458"/>
-      <c r="F23" s="458"/>
-      <c r="G23" s="458"/>
-      <c r="H23" s="458"/>
-      <c r="I23" s="458"/>
-      <c r="J23" s="459"/>
+      <c r="A23" s="442"/>
+      <c r="B23" s="443"/>
+      <c r="C23" s="443"/>
+      <c r="D23" s="443"/>
+      <c r="E23" s="443"/>
+      <c r="F23" s="443"/>
+      <c r="G23" s="443"/>
+      <c r="H23" s="443"/>
+      <c r="I23" s="443"/>
+      <c r="J23" s="444"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="457"/>
-      <c r="B24" s="458"/>
-      <c r="C24" s="458"/>
-      <c r="D24" s="458"/>
-      <c r="E24" s="458"/>
-      <c r="F24" s="458"/>
-      <c r="G24" s="458"/>
-      <c r="H24" s="458"/>
-      <c r="I24" s="458"/>
-      <c r="J24" s="459"/>
+      <c r="A24" s="442"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
+      <c r="D24" s="443"/>
+      <c r="E24" s="443"/>
+      <c r="F24" s="443"/>
+      <c r="G24" s="443"/>
+      <c r="H24" s="443"/>
+      <c r="I24" s="443"/>
+      <c r="J24" s="444"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="460"/>
-      <c r="B25" s="461"/>
-      <c r="C25" s="461"/>
-      <c r="D25" s="461"/>
-      <c r="E25" s="461"/>
-      <c r="F25" s="461"/>
-      <c r="G25" s="461"/>
-      <c r="H25" s="461"/>
-      <c r="I25" s="461"/>
-      <c r="J25" s="462"/>
+      <c r="A25" s="445"/>
+      <c r="B25" s="446"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
+      <c r="F25" s="446"/>
+      <c r="G25" s="446"/>
+      <c r="H25" s="446"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="447"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="463"/>
-      <c r="B26" s="461"/>
-      <c r="C26" s="461"/>
-      <c r="D26" s="461"/>
-      <c r="E26" s="461"/>
-      <c r="F26" s="461"/>
-      <c r="G26" s="461"/>
-      <c r="H26" s="461"/>
-      <c r="I26" s="461"/>
-      <c r="J26" s="462"/>
+      <c r="A26" s="448"/>
+      <c r="B26" s="446"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="446"/>
+      <c r="F26" s="446"/>
+      <c r="G26" s="446"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="447"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="463"/>
-      <c r="B27" s="461"/>
-      <c r="C27" s="461"/>
-      <c r="D27" s="461"/>
-      <c r="E27" s="461"/>
-      <c r="F27" s="461"/>
-      <c r="G27" s="461"/>
-      <c r="H27" s="461"/>
-      <c r="I27" s="461"/>
-      <c r="J27" s="462"/>
+      <c r="A27" s="448"/>
+      <c r="B27" s="446"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="446"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="447"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -21874,18 +21880,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -21906,34 +21912,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="454" t="str">
+      <c r="A31" s="439" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -21954,18 +21960,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="433" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -21986,34 +21992,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="454" t="str">
+      <c r="A36" s="439" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -22160,12 +22166,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="449" t="str">
+      <c r="C47" s="431" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D47" s="449"/>
-      <c r="E47" s="449"/>
+      <c r="D47" s="431"/>
+      <c r="E47" s="431"/>
       <c r="F47" s="22"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -22181,12 +22187,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="449" t="str">
+      <c r="C48" s="431" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
+      <c r="D48" s="431"/>
+      <c r="E48" s="431"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -22202,12 +22208,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="450" t="str">
+      <c r="C49" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="450"/>
-      <c r="E49" s="450"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -22247,6 +22253,12 @@
     <row r="52" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
@@ -22258,12 +22270,6 @@
     <mergeCell ref="A36:J37"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A25:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -22306,10 +22312,10 @@
       <c r="J1" s="467"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="439"/>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
+      <c r="A2" s="454"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
       <c r="E2" s="468" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
@@ -22955,60 +22961,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="440" t="s">
+      <c r="A1" s="449"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="442"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="457"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="436"/>
-      <c r="B2" s="437"/>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="443" t="s">
+      <c r="A2" s="451"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="445"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="460"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="436"/>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="437"/>
-      <c r="F3" s="437"/>
-      <c r="G3" s="443" t="s">
+      <c r="A3" s="451"/>
+      <c r="B3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="445"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="460"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="438"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="439"/>
-      <c r="E4" s="439"/>
-      <c r="F4" s="439"/>
-      <c r="G4" s="446" t="s">
+      <c r="A4" s="453"/>
+      <c r="B4" s="454"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="447"/>
-      <c r="I4" s="447"/>
-      <c r="J4" s="448"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -23131,16 +23137,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="432"/>
-      <c r="J13" s="433"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="434"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="434"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="434"/>
+      <c r="J13" s="435"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -23191,16 +23197,16 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="431"/>
-      <c r="B17" s="432"/>
-      <c r="C17" s="432"/>
-      <c r="D17" s="432"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="432"/>
-      <c r="J17" s="433"/>
+      <c r="A17" s="433"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="435"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -23379,16 +23385,16 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="431"/>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="432"/>
-      <c r="H29" s="432"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="433"/>
+      <c r="A29" s="433"/>
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="435"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -23409,31 +23415,31 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="454"/>
-      <c r="B31" s="455"/>
-      <c r="C31" s="455"/>
-      <c r="D31" s="455"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="455"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
+      <c r="A31" s="439"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="454"/>
-      <c r="B32" s="455"/>
-      <c r="C32" s="455"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="455"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
+      <c r="A32" s="439"/>
+      <c r="B32" s="440"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="440"/>
+      <c r="E32" s="440"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="440"/>
+      <c r="H32" s="440"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -23454,16 +23460,16 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="431"/>
-      <c r="B34" s="432"/>
-      <c r="C34" s="432"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="432"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
+      <c r="A34" s="433"/>
+      <c r="B34" s="434"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="434"/>
+      <c r="G34" s="434"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="434"/>
+      <c r="J34" s="435"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -23484,31 +23490,31 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="454"/>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="455"/>
-      <c r="I36" s="455"/>
-      <c r="J36" s="456"/>
+      <c r="A36" s="439"/>
+      <c r="B36" s="440"/>
+      <c r="C36" s="440"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="440"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="440"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="441"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="454"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="456"/>
+      <c r="A37" s="439"/>
+      <c r="B37" s="440"/>
+      <c r="C37" s="440"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="440"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="440"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="441"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -23625,12 +23631,12 @@
       <c r="B45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="449" t="str">
+      <c r="C45" s="431" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D45" s="449"/>
-      <c r="E45" s="449"/>
+      <c r="D45" s="431"/>
+      <c r="E45" s="431"/>
       <c r="F45" s="37"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -23646,12 +23652,12 @@
       <c r="B46" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="449" t="str">
+      <c r="C46" s="431" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D46" s="449"/>
-      <c r="E46" s="449"/>
+      <c r="D46" s="431"/>
+      <c r="E46" s="431"/>
       <c r="F46" s="8"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -23667,12 +23673,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="450" t="str">
+      <c r="C47" s="432" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D47" s="450"/>
-      <c r="E47" s="450"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="432"/>
       <c r="F47" s="8"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -23711,6 +23717,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A36:J37"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -23723,11 +23734,6 @@
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A25:J27"/>
     <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A36:J37"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23939,147 +23945,147 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="496" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="497"/>
+      <c r="B1" s="496"/>
+      <c r="C1" s="496"/>
+      <c r="D1" s="496"/>
+      <c r="E1" s="496"/>
+      <c r="F1" s="496"/>
+      <c r="G1" s="496"/>
+      <c r="H1" s="496"/>
+      <c r="I1" s="496"/>
     </row>
     <row r="2" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="498" t="s">
+      <c r="A2" s="497" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="499"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="499"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="498"/>
+      <c r="H2" s="498"/>
+      <c r="I2" s="498"/>
     </row>
     <row r="3" spans="1:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="498" t="s">
+      <c r="A3" s="497" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="499"/>
-      <c r="C3" s="499"/>
-      <c r="D3" s="499"/>
-      <c r="E3" s="499"/>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="499"/>
-      <c r="I3" s="499"/>
+      <c r="B3" s="498"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="498"/>
+      <c r="E3" s="498"/>
+      <c r="F3" s="498"/>
+      <c r="G3" s="498"/>
+      <c r="H3" s="498"/>
+      <c r="I3" s="498"/>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="499" t="s">
+      <c r="A4" s="498" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="499"/>
-      <c r="C4" s="499"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="499"/>
-      <c r="G4" s="499"/>
-      <c r="H4" s="499"/>
-      <c r="I4" s="499"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="498"/>
+      <c r="D4" s="498"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
+      <c r="G4" s="498"/>
+      <c r="H4" s="498"/>
+      <c r="I4" s="498"/>
     </row>
     <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="498" t="s">
+      <c r="A5" s="497" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="499"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="499"/>
-      <c r="I5" s="499"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="498"/>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="500" t="s">
+      <c r="A6" s="499" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="500"/>
-      <c r="C6" s="500"/>
-      <c r="D6" s="500"/>
-      <c r="E6" s="500"/>
-      <c r="F6" s="500"/>
-      <c r="G6" s="500"/>
-      <c r="H6" s="500"/>
-      <c r="I6" s="500"/>
+      <c r="B6" s="499"/>
+      <c r="C6" s="499"/>
+      <c r="D6" s="499"/>
+      <c r="E6" s="499"/>
+      <c r="F6" s="499"/>
+      <c r="G6" s="499"/>
+      <c r="H6" s="499"/>
+      <c r="I6" s="499"/>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="498" t="s">
+      <c r="A7" s="497" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="498"/>
-      <c r="C7" s="498"/>
-      <c r="D7" s="498"/>
-      <c r="E7" s="498"/>
-      <c r="F7" s="498"/>
-      <c r="G7" s="498"/>
-      <c r="H7" s="498"/>
-      <c r="I7" s="498"/>
+      <c r="B7" s="497"/>
+      <c r="C7" s="497"/>
+      <c r="D7" s="497"/>
+      <c r="E7" s="497"/>
+      <c r="F7" s="497"/>
+      <c r="G7" s="497"/>
+      <c r="H7" s="497"/>
+      <c r="I7" s="497"/>
     </row>
     <row r="8" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="500" t="s">
+      <c r="A8" s="499" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="500"/>
-      <c r="F8" s="500"/>
-      <c r="G8" s="500"/>
-      <c r="H8" s="500"/>
-      <c r="I8" s="500"/>
+      <c r="B8" s="499"/>
+      <c r="C8" s="499"/>
+      <c r="D8" s="499"/>
+      <c r="E8" s="499"/>
+      <c r="F8" s="499"/>
+      <c r="G8" s="499"/>
+      <c r="H8" s="499"/>
+      <c r="I8" s="499"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="498" t="s">
+      <c r="A9" s="497" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="498"/>
-      <c r="C9" s="498"/>
-      <c r="D9" s="498"/>
-      <c r="E9" s="498"/>
-      <c r="F9" s="498"/>
-      <c r="G9" s="498"/>
-      <c r="H9" s="498"/>
-      <c r="I9" s="498"/>
+      <c r="B9" s="497"/>
+      <c r="C9" s="497"/>
+      <c r="D9" s="497"/>
+      <c r="E9" s="497"/>
+      <c r="F9" s="497"/>
+      <c r="G9" s="497"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="497"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="500" t="s">
+      <c r="A10" s="499" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="500"/>
-      <c r="C10" s="500"/>
-      <c r="D10" s="500"/>
-      <c r="E10" s="500"/>
-      <c r="F10" s="500"/>
-      <c r="G10" s="500"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="500"/>
+      <c r="B10" s="499"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="499"/>
+      <c r="E10" s="499"/>
+      <c r="F10" s="499"/>
+      <c r="G10" s="499"/>
+      <c r="H10" s="499"/>
+      <c r="I10" s="499"/>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="496" t="s">
+      <c r="A11" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="496"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="496"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
+      <c r="B11" s="500"/>
+      <c r="C11" s="500"/>
+      <c r="D11" s="500"/>
+      <c r="E11" s="500"/>
+      <c r="F11" s="500"/>
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="495" t="s">
@@ -24095,17 +24101,17 @@
       <c r="I12" s="495"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="496" t="s">
+      <c r="A13" s="500" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="496"/>
-      <c r="C13" s="496"/>
-      <c r="D13" s="496"/>
-      <c r="E13" s="496"/>
-      <c r="F13" s="496"/>
-      <c r="G13" s="496"/>
-      <c r="H13" s="496"/>
-      <c r="I13" s="496"/>
+      <c r="B13" s="500"/>
+      <c r="C13" s="500"/>
+      <c r="D13" s="500"/>
+      <c r="E13" s="500"/>
+      <c r="F13" s="500"/>
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="495" t="s">
@@ -24121,17 +24127,17 @@
       <c r="I14" s="495"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="496" t="s">
+      <c r="A15" s="500" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="496"/>
-      <c r="C15" s="496"/>
-      <c r="D15" s="496"/>
-      <c r="E15" s="496"/>
-      <c r="F15" s="496"/>
-      <c r="G15" s="496"/>
-      <c r="H15" s="496"/>
-      <c r="I15" s="496"/>
+      <c r="B15" s="500"/>
+      <c r="C15" s="500"/>
+      <c r="D15" s="500"/>
+      <c r="E15" s="500"/>
+      <c r="F15" s="500"/>
+      <c r="G15" s="500"/>
+      <c r="H15" s="500"/>
+      <c r="I15" s="500"/>
     </row>
     <row r="16" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="495" t="s">
@@ -24147,17 +24153,17 @@
       <c r="I16" s="495"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="496" t="s">
+      <c r="A17" s="500" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="496"/>
-      <c r="C17" s="496"/>
-      <c r="D17" s="496"/>
-      <c r="E17" s="496"/>
-      <c r="F17" s="496"/>
-      <c r="G17" s="496"/>
-      <c r="H17" s="496"/>
-      <c r="I17" s="496"/>
+      <c r="B17" s="500"/>
+      <c r="C17" s="500"/>
+      <c r="D17" s="500"/>
+      <c r="E17" s="500"/>
+      <c r="F17" s="500"/>
+      <c r="G17" s="500"/>
+      <c r="H17" s="500"/>
+      <c r="I17" s="500"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="495" t="s">
@@ -24174,6 +24180,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -24186,12 +24198,6 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24212,17 +24218,17 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="500" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="496"/>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
-      <c r="F1" s="496"/>
-      <c r="G1" s="496"/>
-      <c r="H1" s="496"/>
-      <c r="I1" s="496"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="495" t="s">
@@ -24238,17 +24244,17 @@
       <c r="I2" s="495"/>
     </row>
     <row r="3" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="496" t="s">
+      <c r="A3" s="500" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="496"/>
-      <c r="C3" s="496"/>
-      <c r="D3" s="496"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
+      <c r="B3" s="500"/>
+      <c r="C3" s="500"/>
+      <c r="D3" s="500"/>
+      <c r="E3" s="500"/>
+      <c r="F3" s="500"/>
+      <c r="G3" s="500"/>
+      <c r="H3" s="500"/>
+      <c r="I3" s="500"/>
     </row>
     <row r="4" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="495" t="s">
@@ -24264,17 +24270,17 @@
       <c r="I4" s="495"/>
     </row>
     <row r="5" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="500" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="496"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="496"/>
-      <c r="E5" s="496"/>
-      <c r="F5" s="496"/>
-      <c r="G5" s="496"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="496"/>
+      <c r="B5" s="500"/>
+      <c r="C5" s="500"/>
+      <c r="D5" s="500"/>
+      <c r="E5" s="500"/>
+      <c r="F5" s="500"/>
+      <c r="G5" s="500"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="500"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="495" t="s">
@@ -24290,17 +24296,17 @@
       <c r="I6" s="495"/>
     </row>
     <row r="7" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="496" t="s">
+      <c r="A7" s="500" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="496"/>
-      <c r="C7" s="496"/>
-      <c r="D7" s="496"/>
-      <c r="E7" s="496"/>
-      <c r="F7" s="496"/>
-      <c r="G7" s="496"/>
-      <c r="H7" s="496"/>
-      <c r="I7" s="496"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
+      <c r="F7" s="500"/>
+      <c r="G7" s="500"/>
+      <c r="H7" s="500"/>
+      <c r="I7" s="500"/>
     </row>
     <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="495" t="s">
@@ -24316,17 +24322,17 @@
       <c r="I8" s="495"/>
     </row>
     <row r="9" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="497" t="s">
+      <c r="A9" s="496" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="497"/>
-      <c r="C9" s="497"/>
-      <c r="D9" s="497"/>
-      <c r="E9" s="497"/>
-      <c r="F9" s="497"/>
-      <c r="G9" s="497"/>
-      <c r="H9" s="497"/>
-      <c r="I9" s="497"/>
+      <c r="B9" s="496"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="496"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="496"/>
+      <c r="G9" s="496"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="496"/>
     </row>
     <row r="10" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="501" t="s">
@@ -24342,65 +24348,59 @@
       <c r="I10" s="502"/>
     </row>
     <row r="11" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="497" t="s">
+      <c r="A11" s="496" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="497"/>
-      <c r="C11" s="497"/>
-      <c r="D11" s="497"/>
-      <c r="E11" s="497"/>
-      <c r="F11" s="497"/>
-      <c r="G11" s="497"/>
-      <c r="H11" s="497"/>
-      <c r="I11" s="497"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="496"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="496"/>
+      <c r="G11" s="496"/>
+      <c r="H11" s="496"/>
+      <c r="I11" s="496"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="498" t="s">
+      <c r="A12" s="497" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="498"/>
-      <c r="C12" s="498"/>
-      <c r="D12" s="498"/>
-      <c r="E12" s="498"/>
-      <c r="F12" s="498"/>
-      <c r="G12" s="498"/>
-      <c r="H12" s="498"/>
-      <c r="I12" s="498"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="497"/>
+      <c r="D12" s="497"/>
+      <c r="E12" s="497"/>
+      <c r="F12" s="497"/>
+      <c r="G12" s="497"/>
+      <c r="H12" s="497"/>
+      <c r="I12" s="497"/>
     </row>
     <row r="13" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="497" t="s">
+      <c r="A13" s="496" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="497"/>
-      <c r="C13" s="497"/>
-      <c r="D13" s="497"/>
-      <c r="E13" s="497"/>
-      <c r="F13" s="497"/>
-      <c r="G13" s="497"/>
-      <c r="H13" s="497"/>
-      <c r="I13" s="497"/>
+      <c r="B13" s="496"/>
+      <c r="C13" s="496"/>
+      <c r="D13" s="496"/>
+      <c r="E13" s="496"/>
+      <c r="F13" s="496"/>
+      <c r="G13" s="496"/>
+      <c r="H13" s="496"/>
+      <c r="I13" s="496"/>
     </row>
     <row r="14" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="498" t="s">
+      <c r="A14" s="497" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="498"/>
-      <c r="C14" s="498"/>
-      <c r="D14" s="498"/>
-      <c r="E14" s="498"/>
-      <c r="F14" s="498"/>
-      <c r="G14" s="498"/>
-      <c r="H14" s="498"/>
-      <c r="I14" s="498"/>
+      <c r="B14" s="497"/>
+      <c r="C14" s="497"/>
+      <c r="D14" s="497"/>
+      <c r="E14" s="497"/>
+      <c r="F14" s="497"/>
+      <c r="G14" s="497"/>
+      <c r="H14" s="497"/>
+      <c r="I14" s="497"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A7:I7"/>
@@ -24409,6 +24409,12 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumenty/Titulní strany a příprava R.xlsx
+++ b/Dokumenty/Titulní strany a příprava R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\R-built Tool\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819B7BF-8DF2-4AA4-9C08-1A9CA4170E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2CC799-CB1C-45F5-ADF6-3134F06478FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="1890" windowWidth="21600" windowHeight="11325" tabRatio="994" activeTab="21" xr2:uid="{9B3BB66C-1C65-440B-8A35-0FEC1225EBA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="994" activeTab="21" xr2:uid="{9B3BB66C-1C65-440B-8A35-0FEC1225EBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ZAD" sheetId="8" r:id="rId1"/>
@@ -3055,7 +3055,7 @@
     <t>interní číslo</t>
   </si>
   <si>
-    <t>nenach8zi</t>
+    <t>nenachází</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +3924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="119">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -5398,6 +5398,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6489,9 +6504,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7023,13 +7035,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 3" xfId="1" xr:uid="{9DA4A44C-EF8A-4B24-B88D-50FC0AC8EDA0}"/>
     <cellStyle name="normální_List1" xfId="2" xr:uid="{335D1536-5367-4EC4-94CE-8656153F90A6}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -9095,23 +9186,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="71" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="506" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="507"/>
-      <c r="H1" s="507"/>
-      <c r="I1" s="507"/>
-      <c r="J1" s="507"/>
-      <c r="K1" s="507"/>
-      <c r="L1" s="507"/>
-      <c r="M1" s="507"/>
-      <c r="N1" s="507"/>
-      <c r="O1" s="507"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
+      <c r="L1" s="506"/>
+      <c r="M1" s="506"/>
+      <c r="N1" s="506"/>
+      <c r="O1" s="506"/>
     </row>
     <row r="2" spans="1:17" s="71" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="69"/>
@@ -9128,13 +9219,13 @@
       <c r="A3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="508" t="str">
+      <c r="B3" s="507" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="C3" s="508"/>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
@@ -9146,13 +9237,13 @@
       <c r="A4" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="508" t="str">
+      <c r="B4" s="507" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
@@ -9162,44 +9253,44 @@
       <c r="A5" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="508" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="509"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="508"/>
+      <c r="D5" s="508" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="E5" s="509"/>
+      <c r="E5" s="508"/>
       <c r="F5" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="510">
+      <c r="G5" s="509">
         <f ca="1">TODAY()</f>
-        <v>44761</v>
-      </c>
-      <c r="H5" s="510"/>
+        <v>44763</v>
+      </c>
+      <c r="H5" s="509"/>
       <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="503"/>
-      <c r="B6" s="503"/>
-      <c r="C6" s="503"/>
-      <c r="D6" s="503"/>
-      <c r="E6" s="503"/>
-      <c r="F6" s="503"/>
-      <c r="G6" s="503"/>
-      <c r="H6" s="503"/>
-      <c r="I6" s="503"/>
+      <c r="A6" s="502"/>
+      <c r="B6" s="502"/>
+      <c r="C6" s="502"/>
+      <c r="D6" s="502"/>
+      <c r="E6" s="502"/>
+      <c r="F6" s="502"/>
+      <c r="G6" s="502"/>
+      <c r="H6" s="502"/>
+      <c r="I6" s="502"/>
     </row>
     <row r="7" spans="1:17" s="79" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="504" t="s">
+      <c r="B7" s="503" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="504"/>
+      <c r="C7" s="503"/>
       <c r="D7" s="77" t="s">
         <v>77</v>
       </c>
@@ -9526,10 +9617,10 @@
       <c r="A16" s="351" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="505" t="s">
+      <c r="B16" s="504" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="506"/>
+      <c r="C16" s="505"/>
       <c r="D16" s="353" t="s">
         <v>113</v>
       </c>
@@ -10005,67 +10096,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="511" t="s">
+      <c r="A1" s="510" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="F1" s="512"/>
-      <c r="G1" s="512"/>
-      <c r="H1" s="512"/>
-      <c r="I1" s="512"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
-      <c r="M1" s="512"/>
-      <c r="N1" s="512"/>
-      <c r="O1" s="512"/>
-      <c r="P1" s="512"/>
-      <c r="Q1" s="513"/>
+      <c r="B1" s="511"/>
+      <c r="C1" s="511"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
+      <c r="N1" s="511"/>
+      <c r="O1" s="511"/>
+      <c r="P1" s="511"/>
+      <c r="Q1" s="512"/>
     </row>
     <row r="2" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="514" t="s">
+      <c r="A2" s="513" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="515"/>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="515"/>
-      <c r="N2" s="515"/>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515"/>
-      <c r="Q2" s="516"/>
+      <c r="B2" s="514"/>
+      <c r="C2" s="514"/>
+      <c r="D2" s="514"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="514"/>
+      <c r="G2" s="514"/>
+      <c r="H2" s="514"/>
+      <c r="I2" s="514"/>
+      <c r="J2" s="514"/>
+      <c r="K2" s="514"/>
+      <c r="L2" s="514"/>
+      <c r="M2" s="514"/>
+      <c r="N2" s="514"/>
+      <c r="O2" s="514"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="515"/>
     </row>
     <row r="3" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="517" t="s">
+      <c r="A3" s="516" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="518"/>
-      <c r="C3" s="518"/>
-      <c r="D3" s="518"/>
-      <c r="E3" s="518"/>
-      <c r="F3" s="518"/>
-      <c r="G3" s="518"/>
-      <c r="H3" s="518"/>
-      <c r="I3" s="518"/>
-      <c r="J3" s="518"/>
-      <c r="K3" s="518"/>
-      <c r="L3" s="518"/>
-      <c r="M3" s="518"/>
-      <c r="N3" s="518"/>
-      <c r="O3" s="518"/>
-      <c r="P3" s="518"/>
-      <c r="Q3" s="519"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="517"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
+      <c r="I3" s="517"/>
+      <c r="J3" s="517"/>
+      <c r="K3" s="517"/>
+      <c r="L3" s="517"/>
+      <c r="M3" s="517"/>
+      <c r="N3" s="517"/>
+      <c r="O3" s="517"/>
+      <c r="P3" s="517"/>
+      <c r="Q3" s="518"/>
     </row>
     <row r="4" spans="1:17" s="142" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="116"/>
@@ -10087,25 +10178,25 @@
       <c r="Q4" s="116"/>
     </row>
     <row r="5" spans="1:17" s="142" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="520" t="s">
+      <c r="A5" s="519" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="520"/>
-      <c r="C5" s="520"/>
-      <c r="D5" s="520"/>
-      <c r="E5" s="520"/>
-      <c r="F5" s="520"/>
-      <c r="G5" s="520"/>
-      <c r="H5" s="520"/>
-      <c r="I5" s="520"/>
-      <c r="J5" s="520"/>
-      <c r="K5" s="520"/>
-      <c r="L5" s="520"/>
-      <c r="M5" s="520"/>
-      <c r="N5" s="520"/>
-      <c r="O5" s="520"/>
-      <c r="P5" s="520"/>
-      <c r="Q5" s="520"/>
+      <c r="B5" s="519"/>
+      <c r="C5" s="519"/>
+      <c r="D5" s="519"/>
+      <c r="E5" s="519"/>
+      <c r="F5" s="519"/>
+      <c r="G5" s="519"/>
+      <c r="H5" s="519"/>
+      <c r="I5" s="519"/>
+      <c r="J5" s="519"/>
+      <c r="K5" s="519"/>
+      <c r="L5" s="519"/>
+      <c r="M5" s="519"/>
+      <c r="N5" s="519"/>
+      <c r="O5" s="519"/>
+      <c r="P5" s="519"/>
+      <c r="Q5" s="519"/>
     </row>
     <row r="6" spans="1:17" s="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="117"/>
@@ -10127,52 +10218,52 @@
       <c r="Q6" s="117"/>
     </row>
     <row r="7" spans="1:17" s="142" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="521" t="s">
+      <c r="A7" s="520" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="521"/>
-      <c r="C7" s="521"/>
-      <c r="D7" s="521"/>
-      <c r="E7" s="521"/>
-      <c r="F7" s="521"/>
-      <c r="G7" s="521"/>
-      <c r="H7" s="522" t="str">
+      <c r="B7" s="520"/>
+      <c r="C7" s="520"/>
+      <c r="D7" s="520"/>
+      <c r="E7" s="520"/>
+      <c r="F7" s="520"/>
+      <c r="G7" s="520"/>
+      <c r="H7" s="521" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="I7" s="522"/>
-      <c r="J7" s="522"/>
-      <c r="K7" s="522"/>
-      <c r="L7" s="522"/>
-      <c r="M7" s="522"/>
-      <c r="N7" s="522"/>
-      <c r="O7" s="522"/>
-      <c r="P7" s="522"/>
-      <c r="Q7" s="522"/>
+      <c r="I7" s="521"/>
+      <c r="J7" s="521"/>
+      <c r="K7" s="521"/>
+      <c r="L7" s="521"/>
+      <c r="M7" s="521"/>
+      <c r="N7" s="521"/>
+      <c r="O7" s="521"/>
+      <c r="P7" s="521"/>
+      <c r="Q7" s="521"/>
     </row>
     <row r="8" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="521" t="s">
+      <c r="A8" s="520" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="521"/>
-      <c r="C8" s="521"/>
-      <c r="D8" s="521"/>
-      <c r="E8" s="521"/>
-      <c r="F8" s="521"/>
-      <c r="G8" s="521"/>
-      <c r="H8" s="522" t="str">
+      <c r="B8" s="520"/>
+      <c r="C8" s="520"/>
+      <c r="D8" s="520"/>
+      <c r="E8" s="520"/>
+      <c r="F8" s="520"/>
+      <c r="G8" s="520"/>
+      <c r="H8" s="521" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="I8" s="522"/>
-      <c r="J8" s="522"/>
-      <c r="K8" s="522"/>
-      <c r="L8" s="522"/>
-      <c r="M8" s="522"/>
-      <c r="N8" s="522"/>
-      <c r="O8" s="522"/>
-      <c r="P8" s="522"/>
-      <c r="Q8" s="522"/>
+      <c r="I8" s="521"/>
+      <c r="J8" s="521"/>
+      <c r="K8" s="521"/>
+      <c r="L8" s="521"/>
+      <c r="M8" s="521"/>
+      <c r="N8" s="521"/>
+      <c r="O8" s="521"/>
+      <c r="P8" s="521"/>
+      <c r="Q8" s="521"/>
     </row>
     <row r="9" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="118"/>
@@ -10194,25 +10285,25 @@
       <c r="Q9" s="118"/>
     </row>
     <row r="10" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="523" t="s">
+      <c r="A10" s="522" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="523"/>
-      <c r="C10" s="523"/>
-      <c r="D10" s="523"/>
-      <c r="E10" s="523"/>
-      <c r="F10" s="523"/>
-      <c r="G10" s="523"/>
-      <c r="H10" s="523"/>
-      <c r="I10" s="523"/>
-      <c r="J10" s="523"/>
-      <c r="K10" s="523"/>
-      <c r="L10" s="523"/>
-      <c r="M10" s="523"/>
-      <c r="N10" s="523"/>
-      <c r="O10" s="523"/>
-      <c r="P10" s="523"/>
-      <c r="Q10" s="523"/>
+      <c r="B10" s="522"/>
+      <c r="C10" s="522"/>
+      <c r="D10" s="522"/>
+      <c r="E10" s="522"/>
+      <c r="F10" s="522"/>
+      <c r="G10" s="522"/>
+      <c r="H10" s="522"/>
+      <c r="I10" s="522"/>
+      <c r="J10" s="522"/>
+      <c r="K10" s="522"/>
+      <c r="L10" s="522"/>
+      <c r="M10" s="522"/>
+      <c r="N10" s="522"/>
+      <c r="O10" s="522"/>
+      <c r="P10" s="522"/>
+      <c r="Q10" s="522"/>
     </row>
     <row r="11" spans="1:17" s="142" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="119"/>
@@ -10234,37 +10325,37 @@
       <c r="Q11" s="116"/>
     </row>
     <row r="12" spans="1:17" s="142" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="524" t="s">
+      <c r="A12" s="523" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="525"/>
-      <c r="C12" s="528" t="s">
+      <c r="B12" s="524"/>
+      <c r="C12" s="527" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="528"/>
-      <c r="E12" s="528" t="s">
+      <c r="D12" s="527"/>
+      <c r="E12" s="527" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="528"/>
-      <c r="G12" s="528"/>
-      <c r="H12" s="528"/>
-      <c r="I12" s="528"/>
-      <c r="J12" s="529"/>
-      <c r="K12" s="530"/>
-      <c r="L12" s="528"/>
-      <c r="M12" s="528"/>
-      <c r="N12" s="528"/>
-      <c r="O12" s="528"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="527"/>
+      <c r="H12" s="527"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="528"/>
+      <c r="K12" s="529"/>
+      <c r="L12" s="527"/>
+      <c r="M12" s="527"/>
+      <c r="N12" s="527"/>
+      <c r="O12" s="527"/>
       <c r="P12" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="Q12" s="531" t="s">
+      <c r="Q12" s="530" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="142" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="526"/>
-      <c r="B13" s="527"/>
+      <c r="A13" s="525"/>
+      <c r="B13" s="526"/>
       <c r="C13" s="121" t="s">
         <v>140</v>
       </c>
@@ -10307,13 +10398,13 @@
       <c r="P13" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="532"/>
+      <c r="Q13" s="531"/>
     </row>
     <row r="14" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="532" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="534"/>
+      <c r="B14" s="533"/>
       <c r="C14" s="124" t="s">
         <v>155</v>
       </c>
@@ -10361,10 +10452,10 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="535" t="s">
+      <c r="A15" s="534" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="536"/>
+      <c r="B15" s="535"/>
       <c r="C15" s="128" t="s">
         <v>159</v>
       </c>
@@ -10412,8 +10503,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="537"/>
-      <c r="B16" s="538"/>
+      <c r="A16" s="536"/>
+      <c r="B16" s="537"/>
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -10431,8 +10522,8 @@
       <c r="Q16" s="136"/>
     </row>
     <row r="17" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="537"/>
-      <c r="B17" s="538"/>
+      <c r="A17" s="536"/>
+      <c r="B17" s="537"/>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
@@ -10450,8 +10541,8 @@
       <c r="Q17" s="136"/>
     </row>
     <row r="18" spans="1:17" s="142" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="539"/>
-      <c r="B18" s="540"/>
+      <c r="A18" s="538"/>
+      <c r="B18" s="539"/>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
       <c r="E18" s="138"/>
@@ -10807,60 +10898,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -10983,16 +11074,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -11043,18 +11134,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -11075,48 +11166,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="435" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="437"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="437"/>
-      <c r="I19" s="437"/>
-      <c r="J19" s="438"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="437"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="437"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="437"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="437"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
+      <c r="A21" s="435"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -11227,18 +11318,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433" t="s">
+      <c r="A29" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -11259,34 +11350,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="439" t="str">
+      <c r="A31" s="438" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -11307,18 +11398,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433" t="s">
+      <c r="A34" s="432" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -11339,34 +11430,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="439" t="str">
+      <c r="A36" s="438" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -11513,12 +11604,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="431" t="str">
+      <c r="C47" s="430" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D47" s="431"/>
-      <c r="E47" s="431"/>
+      <c r="D47" s="430"/>
+      <c r="E47" s="430"/>
       <c r="F47" s="22"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -11534,12 +11625,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="431" t="str">
+      <c r="C48" s="430" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -11555,12 +11646,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="432" t="str">
+      <c r="C49" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="432"/>
-      <c r="E49" s="432"/>
+      <c r="D49" s="431"/>
+      <c r="E49" s="431"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -11644,30 +11735,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="467" t="str">
+      <c r="E1" s="466" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="454"/>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="468" t="str">
+      <c r="A2" s="453"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="467" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="468"/>
-      <c r="J2" s="468"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
@@ -11684,116 +11775,116 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="541" t="s">
+      <c r="A4" s="540" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="542"/>
-      <c r="C4" s="542"/>
-      <c r="D4" s="542"/>
-      <c r="E4" s="542"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="542"/>
-      <c r="H4" s="542"/>
-      <c r="I4" s="542"/>
-      <c r="J4" s="543"/>
+      <c r="B4" s="541"/>
+      <c r="C4" s="541"/>
+      <c r="D4" s="541"/>
+      <c r="E4" s="541"/>
+      <c r="F4" s="541"/>
+      <c r="G4" s="541"/>
+      <c r="H4" s="541"/>
+      <c r="I4" s="541"/>
+      <c r="J4" s="542"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="464" t="s">
+      <c r="A5" s="463" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
+      <c r="B5" s="464"/>
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="465"/>
     </row>
     <row r="6" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="464" t="s">
+      <c r="A6" s="463" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="465"/>
-      <c r="C6" s="465"/>
-      <c r="D6" s="465"/>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="465"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
+      <c r="B6" s="464"/>
+      <c r="C6" s="464"/>
+      <c r="D6" s="464"/>
+      <c r="E6" s="464"/>
+      <c r="F6" s="464"/>
+      <c r="G6" s="464"/>
+      <c r="H6" s="464"/>
+      <c r="I6" s="464"/>
+      <c r="J6" s="465"/>
     </row>
     <row r="7" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="464" t="s">
+      <c r="A7" s="463" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="465"/>
-      <c r="D7" s="465"/>
-      <c r="E7" s="465"/>
-      <c r="F7" s="465"/>
-      <c r="G7" s="465"/>
-      <c r="H7" s="465"/>
-      <c r="I7" s="465"/>
-      <c r="J7" s="466"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
+      <c r="D7" s="464"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
+      <c r="G7" s="464"/>
+      <c r="H7" s="464"/>
+      <c r="I7" s="464"/>
+      <c r="J7" s="465"/>
     </row>
     <row r="8" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="464" t="s">
+      <c r="A8" s="463" t="s">
         <v>492</v>
       </c>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="465"/>
-      <c r="G8" s="465"/>
-      <c r="H8" s="465"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="466"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
+      <c r="D8" s="464"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="464"/>
+      <c r="G8" s="464"/>
+      <c r="H8" s="464"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="465"/>
     </row>
     <row r="9" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="464" t="s">
+      <c r="A9" s="463" t="s">
         <v>493</v>
       </c>
-      <c r="B9" s="465"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
-      <c r="G9" s="465"/>
-      <c r="H9" s="465"/>
-      <c r="I9" s="465"/>
-      <c r="J9" s="466"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
+      <c r="D9" s="464"/>
+      <c r="E9" s="464"/>
+      <c r="F9" s="464"/>
+      <c r="G9" s="464"/>
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="465"/>
     </row>
     <row r="10" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="464" t="s">
+      <c r="A10" s="463" t="s">
         <v>494</v>
       </c>
-      <c r="B10" s="465"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
-      <c r="G10" s="465"/>
-      <c r="H10" s="465"/>
-      <c r="I10" s="465"/>
-      <c r="J10" s="466"/>
+      <c r="B10" s="464"/>
+      <c r="C10" s="464"/>
+      <c r="D10" s="464"/>
+      <c r="E10" s="464"/>
+      <c r="F10" s="464"/>
+      <c r="G10" s="464"/>
+      <c r="H10" s="464"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="465"/>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="464" t="s">
+      <c r="A11" s="463" t="s">
         <v>495</v>
       </c>
-      <c r="B11" s="465"/>
-      <c r="C11" s="465"/>
-      <c r="D11" s="465"/>
-      <c r="E11" s="465"/>
-      <c r="F11" s="465"/>
-      <c r="G11" s="465"/>
-      <c r="H11" s="465"/>
-      <c r="I11" s="465"/>
-      <c r="J11" s="466"/>
+      <c r="B11" s="464"/>
+      <c r="C11" s="464"/>
+      <c r="D11" s="464"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="464"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="464"/>
+      <c r="I11" s="464"/>
+      <c r="J11" s="465"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
@@ -11883,8 +11974,8 @@
       <c r="B4" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="544"/>
       <c r="E4" s="163"/>
       <c r="F4" s="151"/>
     </row>
@@ -11892,8 +11983,8 @@
       <c r="B5" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="547"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="546"/>
       <c r="E5" s="163"/>
       <c r="F5" s="151"/>
     </row>
@@ -11910,8 +12001,8 @@
       <c r="B7" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="548"/>
-      <c r="D7" s="549"/>
+      <c r="C7" s="547"/>
+      <c r="D7" s="548"/>
       <c r="E7" s="163"/>
       <c r="F7" s="151"/>
     </row>
@@ -12522,20 +12613,20 @@
       <c r="A2" s="276" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="551"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
     </row>
     <row r="3" spans="1:3" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="552"/>
-      <c r="C3" s="553"/>
+      <c r="B3" s="551"/>
+      <c r="C3" s="552"/>
     </row>
     <row r="4" spans="1:3" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="554"/>
-      <c r="B4" s="555"/>
-      <c r="C4" s="556"/>
+      <c r="A4" s="553"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="555"/>
     </row>
     <row r="5" spans="1:3" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="277" t="s">
@@ -12799,8 +12890,8 @@
       <c r="B4" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="C4" s="543"/>
+      <c r="D4" s="544"/>
       <c r="E4" s="162"/>
       <c r="F4" s="151"/>
     </row>
@@ -12808,8 +12899,8 @@
       <c r="B5" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="547"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="546"/>
       <c r="E5" s="162"/>
       <c r="F5" s="151"/>
     </row>
@@ -12817,8 +12908,8 @@
       <c r="B6" s="244" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="544"/>
-      <c r="D6" s="545"/>
+      <c r="C6" s="543"/>
+      <c r="D6" s="544"/>
       <c r="E6" s="162"/>
       <c r="F6" s="151"/>
     </row>
@@ -12826,8 +12917,8 @@
       <c r="B7" s="245" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="544"/>
-      <c r="D7" s="545"/>
+      <c r="C7" s="543"/>
+      <c r="D7" s="544"/>
       <c r="E7" s="162"/>
       <c r="F7" s="151"/>
       <c r="G7" s="313" t="str">
@@ -13627,8 +13718,8 @@
       <c r="A3" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="557"/>
-      <c r="C3" s="558"/>
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
       <c r="D3" s="220"/>
       <c r="E3" s="220" t="s">
         <v>234</v>
@@ -13643,8 +13734,8 @@
       <c r="A4" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="557"/>
-      <c r="C4" s="558"/>
+      <c r="B4" s="556"/>
+      <c r="C4" s="557"/>
       <c r="D4" s="220"/>
       <c r="E4" s="218"/>
       <c r="F4" s="218"/>
@@ -13655,8 +13746,8 @@
       <c r="A5" s="217" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="557"/>
-      <c r="C5" s="558"/>
+      <c r="B5" s="556"/>
+      <c r="C5" s="557"/>
       <c r="D5" s="220"/>
       <c r="E5" s="220" t="s">
         <v>225</v>
@@ -14704,39 +14795,39 @@
       <c r="M7" s="293"/>
     </row>
     <row r="8" spans="1:13" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="560" t="s">
+      <c r="A8" s="559" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="562" t="s">
+      <c r="B8" s="561" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="559"/>
-      <c r="D8" s="559"/>
-      <c r="E8" s="559"/>
-      <c r="F8" s="559" t="s">
+      <c r="C8" s="558"/>
+      <c r="D8" s="558"/>
+      <c r="E8" s="558"/>
+      <c r="F8" s="558" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="559" t="s">
+      <c r="G8" s="558" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="559"/>
-      <c r="I8" s="559"/>
-      <c r="J8" s="559" t="s">
+      <c r="H8" s="558"/>
+      <c r="I8" s="558"/>
+      <c r="J8" s="558" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="559"/>
-      <c r="L8" s="559" t="s">
+      <c r="K8" s="558"/>
+      <c r="L8" s="558" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="559"/>
+      <c r="M8" s="558"/>
     </row>
     <row r="9" spans="1:13" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="561"/>
-      <c r="B9" s="563"/>
-      <c r="C9" s="563"/>
-      <c r="D9" s="563"/>
-      <c r="E9" s="563"/>
-      <c r="F9" s="563"/>
+      <c r="A9" s="560"/>
+      <c r="B9" s="562"/>
+      <c r="C9" s="562"/>
+      <c r="D9" s="562"/>
+      <c r="E9" s="562"/>
+      <c r="F9" s="562"/>
       <c r="G9" s="222" t="s">
         <v>285</v>
       </c>
@@ -15875,45 +15966,45 @@
       <c r="O7" s="303"/>
     </row>
     <row r="8" spans="1:15" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="559" t="s">
+      <c r="A8" s="558" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="562" t="s">
+      <c r="B8" s="561" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="559"/>
-      <c r="D8" s="559"/>
-      <c r="E8" s="559"/>
-      <c r="F8" s="559" t="s">
+      <c r="C8" s="558"/>
+      <c r="D8" s="558"/>
+      <c r="E8" s="558"/>
+      <c r="F8" s="558" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="559" t="s">
+      <c r="G8" s="558" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="559"/>
-      <c r="I8" s="559"/>
-      <c r="J8" s="559" t="s">
+      <c r="H8" s="558"/>
+      <c r="I8" s="558"/>
+      <c r="J8" s="558" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="559"/>
-      <c r="L8" s="559" t="s">
+      <c r="K8" s="558"/>
+      <c r="L8" s="558" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="559"/>
-      <c r="N8" s="562" t="s">
+      <c r="M8" s="558"/>
+      <c r="N8" s="561" t="s">
         <v>283</v>
       </c>
-      <c r="O8" s="562" t="s">
+      <c r="O8" s="561" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="563"/>
-      <c r="B9" s="563"/>
-      <c r="C9" s="563"/>
-      <c r="D9" s="563"/>
-      <c r="E9" s="563"/>
-      <c r="F9" s="563"/>
+      <c r="A9" s="562"/>
+      <c r="B9" s="562"/>
+      <c r="C9" s="562"/>
+      <c r="D9" s="562"/>
+      <c r="E9" s="562"/>
+      <c r="F9" s="562"/>
       <c r="G9" s="222" t="s">
         <v>285</v>
       </c>
@@ -15935,8 +16026,8 @@
       <c r="M9" s="222" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="563"/>
-      <c r="O9" s="563"/>
+      <c r="N9" s="562"/>
+      <c r="O9" s="562"/>
     </row>
     <row r="10" spans="1:15" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="234"/>
@@ -16306,453 +16397,453 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="21.6640625" style="395" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="395" customWidth="1"/>
+    <col min="1" max="3" width="21.6640625" style="394" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" style="394" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="396" t="s">
+    <row r="1" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="395" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="398" t="s">
+      <c r="C1" s="397" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="415"/>
-      <c r="E1" s="416"/>
-    </row>
-    <row r="2" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="399" t="str">
+      <c r="D1" s="414"/>
+      <c r="E1" s="415"/>
+    </row>
+    <row r="2" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="398" t="str">
         <f>ZAD!C9</f>
         <v>Karolína Dittrichová</v>
       </c>
-      <c r="B2" s="400" t="str">
+      <c r="B2" s="399" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="C2" s="401" t="s">
+      <c r="C2" s="400" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="417"/>
-      <c r="E2" s="418"/>
-    </row>
-    <row r="3" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="402" t="s">
+      <c r="D2" s="416"/>
+      <c r="E2" s="417"/>
+    </row>
+    <row r="3" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="401" t="s">
         <v>510</v>
       </c>
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="418" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="419"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="418"/>
-    </row>
-    <row r="4" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="403"/>
-      <c r="B4" s="420"/>
-      <c r="C4" s="420"/>
-      <c r="D4" s="421"/>
-      <c r="E4" s="422"/>
-    </row>
-    <row r="5" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="402" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="417"/>
+    </row>
+    <row r="4" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="402"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="420"/>
+      <c r="E4" s="421"/>
+    </row>
+    <row r="5" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="401" t="s">
         <v>512</v>
       </c>
-      <c r="B5" s="404"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="406" t="s">
+      <c r="B5" s="403"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="405" t="s">
         <v>513</v>
       </c>
-      <c r="E5" s="407" t="str">
+      <c r="E5" s="406" t="str">
         <f>ZAD!C11</f>
         <v>2021/34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="423" t="str">
+    <row r="6" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="422" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B6" s="424"/>
-      <c r="C6" s="425"/>
-      <c r="D6" s="408" t="s">
+      <c r="B6" s="423"/>
+      <c r="C6" s="424"/>
+      <c r="D6" s="407" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="409" t="str">
+      <c r="E6" s="408" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="425"/>
-      <c r="D7" s="408" t="s">
+    <row r="7" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="422"/>
+      <c r="B7" s="423"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="407" t="s">
         <v>515</v>
       </c>
-      <c r="E7" s="410" t="s">
+      <c r="E7" s="409" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="423"/>
-      <c r="B8" s="424"/>
-      <c r="C8" s="425"/>
-      <c r="D8" s="429" t="str">
+    <row r="8" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="422"/>
+      <c r="B8" s="423"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="428" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="E8" s="430"/>
-    </row>
-    <row r="9" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="426"/>
-      <c r="B9" s="427"/>
-      <c r="C9" s="428"/>
-      <c r="D9" s="429"/>
-      <c r="E9" s="430"/>
-    </row>
-    <row r="10" spans="1:5" s="395" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="411"/>
-      <c r="B10" s="412"/>
-      <c r="C10" s="412"/>
-      <c r="D10" s="413"/>
-      <c r="E10" s="414"/>
-    </row>
-    <row r="11" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="396" t="s">
+      <c r="E8" s="429"/>
+    </row>
+    <row r="9" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="425"/>
+      <c r="B9" s="426"/>
+      <c r="C9" s="427"/>
+      <c r="D9" s="428"/>
+      <c r="E9" s="429"/>
+    </row>
+    <row r="10" spans="1:5" s="394" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="410"/>
+      <c r="B10" s="411"/>
+      <c r="C10" s="411"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="413"/>
+    </row>
+    <row r="11" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="395" t="s">
         <v>506</v>
       </c>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="398" t="s">
+      <c r="C11" s="397" t="s">
         <v>507</v>
       </c>
-      <c r="D11" s="415"/>
-      <c r="E11" s="416"/>
-    </row>
-    <row r="12" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="399" t="str">
+      <c r="D11" s="414"/>
+      <c r="E11" s="415"/>
+    </row>
+    <row r="12" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="398" t="str">
         <f>A2</f>
         <v>Karolína Dittrichová</v>
       </c>
-      <c r="B12" s="400" t="s">
+      <c r="B12" s="399" t="s">
         <v>508</v>
       </c>
-      <c r="C12" s="401" t="s">
+      <c r="C12" s="400" t="s">
         <v>509</v>
       </c>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
-    </row>
-    <row r="13" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="402" t="s">
+      <c r="D12" s="416"/>
+      <c r="E12" s="417"/>
+    </row>
+    <row r="13" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="401" t="s">
         <v>510</v>
       </c>
-      <c r="B13" s="419" t="s">
+      <c r="B13" s="418" t="s">
         <v>511</v>
       </c>
-      <c r="C13" s="419"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="418"/>
-    </row>
-    <row r="14" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="403"/>
-      <c r="B14" s="420"/>
-      <c r="C14" s="420"/>
-      <c r="D14" s="421"/>
-      <c r="E14" s="422"/>
-    </row>
-    <row r="15" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="402" t="s">
+      <c r="C13" s="418"/>
+      <c r="D13" s="416"/>
+      <c r="E13" s="417"/>
+    </row>
+    <row r="14" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="402"/>
+      <c r="B14" s="419"/>
+      <c r="C14" s="419"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
+    </row>
+    <row r="15" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="401" t="s">
         <v>512</v>
       </c>
-      <c r="B15" s="404"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="406" t="s">
+      <c r="B15" s="403"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="405" t="s">
         <v>513</v>
       </c>
-      <c r="E15" s="407" t="str">
+      <c r="E15" s="406" t="str">
         <f>E5</f>
         <v>2021/34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="423" t="str">
+    <row r="16" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="422" t="str">
         <f>A6</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B16" s="424"/>
-      <c r="C16" s="425"/>
-      <c r="D16" s="408" t="s">
+      <c r="B16" s="423"/>
+      <c r="C16" s="424"/>
+      <c r="D16" s="407" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="410" t="str">
+      <c r="E16" s="409" t="str">
         <f>E6</f>
         <v>05/2022</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="423"/>
-      <c r="B17" s="424"/>
-      <c r="C17" s="425"/>
-      <c r="D17" s="408" t="s">
+    <row r="17" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="422"/>
+      <c r="B17" s="423"/>
+      <c r="C17" s="424"/>
+      <c r="D17" s="407" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="410" t="s">
+      <c r="E17" s="409" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="423"/>
-      <c r="B18" s="424"/>
-      <c r="C18" s="425"/>
-      <c r="D18" s="429" t="str">
+    <row r="18" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="422"/>
+      <c r="B18" s="423"/>
+      <c r="C18" s="424"/>
+      <c r="D18" s="428" t="str">
         <f>D8</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="E18" s="430"/>
-    </row>
-    <row r="19" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="426"/>
-      <c r="B19" s="427"/>
-      <c r="C19" s="428"/>
-      <c r="D19" s="429"/>
-      <c r="E19" s="430"/>
-    </row>
-    <row r="20" spans="1:5" s="395" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="411"/>
-      <c r="B20" s="412"/>
-      <c r="C20" s="412"/>
-      <c r="D20" s="413"/>
-      <c r="E20" s="414"/>
-    </row>
-    <row r="21" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="396" t="s">
+      <c r="E18" s="429"/>
+    </row>
+    <row r="19" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="425"/>
+      <c r="B19" s="426"/>
+      <c r="C19" s="427"/>
+      <c r="D19" s="428"/>
+      <c r="E19" s="429"/>
+    </row>
+    <row r="20" spans="1:5" s="394" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="410"/>
+      <c r="B20" s="411"/>
+      <c r="C20" s="411"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="413"/>
+    </row>
+    <row r="21" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="395" t="s">
         <v>506</v>
       </c>
-      <c r="B21" s="397" t="s">
+      <c r="B21" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="398" t="s">
+      <c r="C21" s="397" t="s">
         <v>507</v>
       </c>
-      <c r="D21" s="415"/>
-      <c r="E21" s="416"/>
-    </row>
-    <row r="22" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="399" t="str">
+      <c r="D21" s="414"/>
+      <c r="E21" s="415"/>
+    </row>
+    <row r="22" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="398" t="str">
         <f>A2</f>
         <v>Karolína Dittrichová</v>
       </c>
-      <c r="B22" s="400" t="s">
+      <c r="B22" s="399" t="s">
         <v>508</v>
       </c>
-      <c r="C22" s="401" t="s">
+      <c r="C22" s="400" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="417"/>
-      <c r="E22" s="418"/>
-    </row>
-    <row r="23" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="402" t="s">
+      <c r="D22" s="416"/>
+      <c r="E22" s="417"/>
+    </row>
+    <row r="23" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="401" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="419" t="s">
+      <c r="B23" s="418" t="s">
         <v>511</v>
       </c>
-      <c r="C23" s="419"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="418"/>
-    </row>
-    <row r="24" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="403"/>
-      <c r="B24" s="420"/>
-      <c r="C24" s="420"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="422"/>
-    </row>
-    <row r="25" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="402" t="s">
+      <c r="C23" s="418"/>
+      <c r="D23" s="416"/>
+      <c r="E23" s="417"/>
+    </row>
+    <row r="24" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="402"/>
+      <c r="B24" s="419"/>
+      <c r="C24" s="419"/>
+      <c r="D24" s="420"/>
+      <c r="E24" s="421"/>
+    </row>
+    <row r="25" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="401" t="s">
         <v>512</v>
       </c>
-      <c r="B25" s="404"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="406" t="s">
+      <c r="B25" s="403"/>
+      <c r="C25" s="404"/>
+      <c r="D25" s="405" t="s">
         <v>513</v>
       </c>
-      <c r="E25" s="407" t="str">
+      <c r="E25" s="406" t="str">
         <f>E5</f>
         <v>2021/34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="423" t="str">
+    <row r="26" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="422" t="str">
         <f>A6</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B26" s="424"/>
-      <c r="C26" s="425"/>
-      <c r="D26" s="408" t="s">
+      <c r="B26" s="423"/>
+      <c r="C26" s="424"/>
+      <c r="D26" s="407" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="410" t="str">
+      <c r="E26" s="409" t="str">
         <f>E6</f>
         <v>05/2022</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="423"/>
-      <c r="B27" s="424"/>
-      <c r="C27" s="425"/>
-      <c r="D27" s="408" t="s">
+    <row r="27" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="422"/>
+      <c r="B27" s="423"/>
+      <c r="C27" s="424"/>
+      <c r="D27" s="407" t="s">
         <v>515</v>
       </c>
-      <c r="E27" s="410" t="s">
+      <c r="E27" s="409" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="423"/>
-      <c r="B28" s="424"/>
-      <c r="C28" s="425"/>
-      <c r="D28" s="429" t="str">
+    <row r="28" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="422"/>
+      <c r="B28" s="423"/>
+      <c r="C28" s="424"/>
+      <c r="D28" s="428" t="str">
         <f>D8</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="E28" s="430"/>
-    </row>
-    <row r="29" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="426"/>
-      <c r="B29" s="427"/>
-      <c r="C29" s="428"/>
-      <c r="D29" s="429"/>
-      <c r="E29" s="430"/>
-    </row>
-    <row r="30" spans="1:5" s="395" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="411"/>
-      <c r="B30" s="412"/>
-      <c r="C30" s="412"/>
-      <c r="D30" s="413"/>
-      <c r="E30" s="414"/>
-    </row>
-    <row r="31" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="396" t="s">
+      <c r="E28" s="429"/>
+    </row>
+    <row r="29" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="425"/>
+      <c r="B29" s="426"/>
+      <c r="C29" s="427"/>
+      <c r="D29" s="428"/>
+      <c r="E29" s="429"/>
+    </row>
+    <row r="30" spans="1:5" s="394" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="410"/>
+      <c r="B30" s="411"/>
+      <c r="C30" s="411"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="413"/>
+    </row>
+    <row r="31" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="395" t="s">
         <v>506</v>
       </c>
-      <c r="B31" s="397" t="s">
+      <c r="B31" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="398" t="s">
+      <c r="C31" s="397" t="s">
         <v>507</v>
       </c>
-      <c r="D31" s="415"/>
-      <c r="E31" s="416"/>
-    </row>
-    <row r="32" spans="1:5" s="395" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="399" t="str">
+      <c r="D31" s="414"/>
+      <c r="E31" s="415"/>
+    </row>
+    <row r="32" spans="1:5" s="394" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="398" t="str">
         <f>A2</f>
         <v>Karolína Dittrichová</v>
       </c>
-      <c r="B32" s="400" t="s">
+      <c r="B32" s="399" t="s">
         <v>508</v>
       </c>
-      <c r="C32" s="401" t="s">
+      <c r="C32" s="400" t="s">
         <v>509</v>
       </c>
-      <c r="D32" s="417"/>
-      <c r="E32" s="418"/>
-    </row>
-    <row r="33" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="402" t="s">
+      <c r="D32" s="416"/>
+      <c r="E32" s="417"/>
+    </row>
+    <row r="33" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="401" t="s">
         <v>510</v>
       </c>
-      <c r="B33" s="419" t="s">
+      <c r="B33" s="418" t="s">
         <v>511</v>
       </c>
-      <c r="C33" s="419"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="418"/>
-    </row>
-    <row r="34" spans="1:5" s="395" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="403"/>
-      <c r="B34" s="420"/>
-      <c r="C34" s="420"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="422"/>
-    </row>
-    <row r="35" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="402" t="s">
+      <c r="C33" s="418"/>
+      <c r="D33" s="416"/>
+      <c r="E33" s="417"/>
+    </row>
+    <row r="34" spans="1:5" s="394" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="402"/>
+      <c r="B34" s="419"/>
+      <c r="C34" s="419"/>
+      <c r="D34" s="420"/>
+      <c r="E34" s="421"/>
+    </row>
+    <row r="35" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="401" t="s">
         <v>512</v>
       </c>
-      <c r="B35" s="404"/>
-      <c r="C35" s="405"/>
-      <c r="D35" s="406" t="s">
+      <c r="B35" s="403"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="405" t="s">
         <v>513</v>
       </c>
-      <c r="E35" s="407" t="str">
+      <c r="E35" s="406" t="str">
         <f>E5</f>
         <v>2021/34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="423" t="str">
+    <row r="36" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="422" t="str">
         <f>A6</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B36" s="424"/>
-      <c r="C36" s="425"/>
-      <c r="D36" s="408" t="s">
+      <c r="B36" s="423"/>
+      <c r="C36" s="424"/>
+      <c r="D36" s="407" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="410" t="str">
+      <c r="E36" s="409" t="str">
         <f>E6</f>
         <v>05/2022</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="423"/>
-      <c r="B37" s="424"/>
-      <c r="C37" s="425"/>
-      <c r="D37" s="408" t="s">
+    <row r="37" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="422"/>
+      <c r="B37" s="423"/>
+      <c r="C37" s="424"/>
+      <c r="D37" s="407" t="s">
         <v>515</v>
       </c>
-      <c r="E37" s="410" t="s">
+      <c r="E37" s="409" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="423"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="425"/>
-      <c r="D38" s="429" t="str">
+    <row r="38" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="422"/>
+      <c r="B38" s="423"/>
+      <c r="C38" s="424"/>
+      <c r="D38" s="428" t="str">
         <f>D8</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="E38" s="430"/>
-    </row>
-    <row r="39" spans="1:5" s="395" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="426"/>
-      <c r="B39" s="427"/>
-      <c r="C39" s="428"/>
-      <c r="D39" s="429"/>
-      <c r="E39" s="430"/>
-    </row>
-    <row r="40" spans="1:5" s="395" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="411"/>
-      <c r="B40" s="412"/>
-      <c r="C40" s="412"/>
-      <c r="D40" s="413"/>
-      <c r="E40" s="414"/>
-    </row>
-    <row r="41" spans="1:5" s="395" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E38" s="429"/>
+    </row>
+    <row r="39" spans="1:5" s="394" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="425"/>
+      <c r="B39" s="426"/>
+      <c r="C39" s="427"/>
+      <c r="D39" s="428"/>
+      <c r="E39" s="429"/>
+    </row>
+    <row r="40" spans="1:5" s="394" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="410"/>
+      <c r="B40" s="411"/>
+      <c r="C40" s="411"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="413"/>
+    </row>
+    <row r="41" spans="1:5" s="394" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A40:E40"/>
@@ -18009,60 +18100,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -18185,16 +18276,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -18245,18 +18336,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -18277,48 +18368,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="435" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="437"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="437"/>
-      <c r="I19" s="437"/>
-      <c r="J19" s="438"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="437"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="437"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="437"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="437"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
+      <c r="A21" s="435"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -18429,18 +18520,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433" t="s">
+      <c r="A29" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -18461,34 +18552,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="439" t="str">
+      <c r="A31" s="438" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -18509,18 +18600,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433" t="s">
+      <c r="A34" s="432" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -18541,34 +18632,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="439" t="str">
+      <c r="A36" s="438" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -18736,12 +18827,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="431" t="str">
+      <c r="C48" s="430" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -18757,12 +18848,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="432" t="str">
+      <c r="C49" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="432"/>
-      <c r="E49" s="432"/>
+      <c r="D49" s="431"/>
+      <c r="E49" s="431"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -18831,7 +18922,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18850,12 +18941,12 @@
       <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="564" t="str">
+      <c r="C1" s="563" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="D1" s="565"/>
-      <c r="E1" s="566"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="565"/>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="360"/>
@@ -18876,13 +18967,13 @@
       <c r="A3" s="374">
         <v>1</v>
       </c>
-      <c r="B3" s="567" t="s">
+      <c r="B3" s="566" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="568"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="569"/>
-      <c r="G3" s="381" t="s">
+      <c r="C3" s="567"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="568"/>
+      <c r="G3" s="392" t="s">
         <v>518</v>
       </c>
     </row>
@@ -18890,13 +18981,13 @@
       <c r="A4" s="374">
         <v>2</v>
       </c>
-      <c r="B4" s="570" t="s">
+      <c r="B4" s="569" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="571"/>
-      <c r="D4" s="571"/>
-      <c r="E4" s="572"/>
-      <c r="G4" s="393" t="s">
+      <c r="C4" s="570"/>
+      <c r="D4" s="570"/>
+      <c r="E4" s="571"/>
+      <c r="G4" s="392" t="s">
         <v>498</v>
       </c>
     </row>
@@ -18904,13 +18995,13 @@
       <c r="A5" s="374">
         <v>3</v>
       </c>
-      <c r="B5" s="570" t="s">
+      <c r="B5" s="569" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="571"/>
-      <c r="D5" s="571"/>
-      <c r="E5" s="572"/>
-      <c r="G5" s="393" t="s">
+      <c r="C5" s="570"/>
+      <c r="D5" s="570"/>
+      <c r="E5" s="571"/>
+      <c r="G5" s="392" t="s">
         <v>26</v>
       </c>
     </row>
@@ -18928,7 +19019,7 @@
       <c r="E6" s="384" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="394" t="s">
+      <c r="G6" s="393" t="s">
         <v>499</v>
       </c>
     </row>
@@ -18940,7 +19031,7 @@
       <c r="C7" s="385"/>
       <c r="D7" s="386"/>
       <c r="E7" s="387"/>
-      <c r="G7" s="394" t="s">
+      <c r="G7" s="393" t="s">
         <v>500</v>
       </c>
     </row>
@@ -19032,7 +19123,7 @@
       <c r="B17" s="378"/>
       <c r="C17" s="382"/>
       <c r="D17" s="383"/>
-      <c r="E17" s="384"/>
+      <c r="E17" s="387"/>
     </row>
     <row r="18" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="374">
@@ -19041,7 +19132,7 @@
       <c r="B18" s="378"/>
       <c r="C18" s="382"/>
       <c r="D18" s="383"/>
-      <c r="E18" s="384"/>
+      <c r="E18" s="387"/>
     </row>
     <row r="19" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="374">
@@ -19050,7 +19141,7 @@
       <c r="B19" s="378"/>
       <c r="C19" s="382"/>
       <c r="D19" s="383"/>
-      <c r="E19" s="384"/>
+      <c r="E19" s="387"/>
     </row>
     <row r="20" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="374">
@@ -19059,7 +19150,7 @@
       <c r="B20" s="378"/>
       <c r="C20" s="385"/>
       <c r="D20" s="383"/>
-      <c r="E20" s="384"/>
+      <c r="E20" s="387"/>
     </row>
     <row r="21" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="374">
@@ -19068,7 +19159,7 @@
       <c r="B21" s="388"/>
       <c r="C21" s="385"/>
       <c r="D21" s="383"/>
-      <c r="E21" s="384"/>
+      <c r="E21" s="387"/>
     </row>
     <row r="22" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="374">
@@ -19077,7 +19168,7 @@
       <c r="B22" s="378"/>
       <c r="C22" s="382"/>
       <c r="D22" s="383"/>
-      <c r="E22" s="384"/>
+      <c r="E22" s="387"/>
     </row>
     <row r="23" spans="1:5" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="374">
@@ -19095,7 +19186,7 @@
       <c r="B24" s="379"/>
       <c r="C24" s="390"/>
       <c r="D24" s="391"/>
-      <c r="E24" s="392"/>
+      <c r="E24" s="580"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25"/>
@@ -19119,6 +19210,23 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="E7:E24">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="nenachází">
+      <formula>NOT(ISERROR(SEARCH("nenachází",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="střet">
+      <formula>NOT(ISERROR(SEARCH("střet",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="nejsou dotčeni">
+      <formula>NOT(ISERROR(SEARCH("nejsou dotčeni",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="souhlasí">
+      <formula>NOT(ISERROR(SEARCH("souhlasí",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="dotčeni">
+      <formula>NOT(ISERROR(SEARCH("dotčeni",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19148,60 +19256,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -19324,16 +19432,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -19384,18 +19492,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -19416,48 +19524,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="435" t="s">
         <v>504</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="437"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="437"/>
-      <c r="I19" s="437"/>
-      <c r="J19" s="438"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="437"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="437"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="437"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="437"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
+      <c r="A21" s="435"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -19568,18 +19676,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433" t="s">
+      <c r="A29" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -19600,34 +19708,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="439" t="str">
+      <c r="A31" s="438" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -19648,18 +19756,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433" t="s">
+      <c r="A34" s="432" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -19680,34 +19788,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="439" t="str">
+      <c r="A36" s="438" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -19875,12 +19983,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="431" t="str">
+      <c r="C48" s="430" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -19896,12 +20004,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="432" t="str">
+      <c r="C49" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="432"/>
-      <c r="E49" s="432"/>
+      <c r="D49" s="431"/>
+      <c r="E49" s="431"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -19970,7 +20078,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:XFD10"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19986,11 +20094,11 @@
       <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="577" t="str">
+      <c r="C1" s="576" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="D1" s="578"/>
+      <c r="D1" s="577"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
@@ -20008,81 +20116,81 @@
       <c r="A3" s="374">
         <v>1</v>
       </c>
-      <c r="B3" s="579" t="s">
+      <c r="B3" s="578" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="579"/>
-      <c r="D3" s="580"/>
+      <c r="C3" s="578"/>
+      <c r="D3" s="579"/>
     </row>
     <row r="4" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="375">
         <v>2</v>
       </c>
-      <c r="B4" s="573" t="s">
+      <c r="B4" s="572" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="573"/>
-      <c r="D4" s="574"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
     </row>
     <row r="5" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="375">
         <v>3</v>
       </c>
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="572" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="573"/>
-      <c r="D5" s="574"/>
+      <c r="C5" s="572"/>
+      <c r="D5" s="573"/>
     </row>
     <row r="6" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="375">
         <v>4</v>
       </c>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="572" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="574"/>
+      <c r="C6" s="572"/>
+      <c r="D6" s="573"/>
     </row>
     <row r="7" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="375">
         <v>5</v>
       </c>
-      <c r="B7" s="573" t="s">
+      <c r="B7" s="572" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="573"/>
-      <c r="D7" s="574"/>
+      <c r="C7" s="572"/>
+      <c r="D7" s="573"/>
     </row>
     <row r="8" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="375">
         <v>6</v>
       </c>
-      <c r="B8" s="573" t="s">
+      <c r="B8" s="572" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="573"/>
-      <c r="D8" s="574"/>
+      <c r="C8" s="572"/>
+      <c r="D8" s="573"/>
     </row>
     <row r="9" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="375">
         <v>7</v>
       </c>
-      <c r="B9" s="573" t="s">
+      <c r="B9" s="572" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="573"/>
-      <c r="D9" s="574"/>
+      <c r="C9" s="572"/>
+      <c r="D9" s="573"/>
     </row>
     <row r="10" spans="1:4" s="377" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="376">
         <v>8</v>
       </c>
-      <c r="B10" s="575" t="s">
+      <c r="B10" s="574" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="575"/>
-      <c r="D10" s="576"/>
+      <c r="C10" s="574"/>
+      <c r="D10" s="575"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11"/>
@@ -20176,60 +20284,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -20352,16 +20460,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -20412,18 +20520,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -20444,48 +20552,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="435" t="s">
         <v>505</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="437"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="437"/>
-      <c r="I19" s="437"/>
-      <c r="J19" s="438"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="437"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="437"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="437"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="437"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
+      <c r="A21" s="435"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -20596,18 +20704,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433" t="s">
+      <c r="A29" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -20628,34 +20736,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="439" t="str">
+      <c r="A31" s="438" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -20676,18 +20784,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433" t="s">
+      <c r="A34" s="432" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -20708,34 +20816,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="439" t="str">
+      <c r="A36" s="438" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -20903,12 +21011,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="431" t="str">
+      <c r="C48" s="430" t="str">
         <f>ZAD!C10</f>
         <v>730 874 211</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -20924,12 +21032,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="432" t="str">
+      <c r="C49" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="432"/>
-      <c r="E49" s="432"/>
+      <c r="D49" s="431"/>
+      <c r="E49" s="431"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -21015,30 +21123,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="467" t="str">
+      <c r="E1" s="466" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="454"/>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="468" t="str">
+      <c r="A2" s="453"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="467" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="468"/>
-      <c r="J2" s="468"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
@@ -21055,32 +21163,32 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="463" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="465"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
-      <c r="I4" s="465"/>
-      <c r="J4" s="466"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="464"/>
+      <c r="F4" s="464"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
+      <c r="I4" s="464"/>
+      <c r="J4" s="465"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="464" t="s">
+      <c r="A5" s="463" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
+      <c r="B5" s="464"/>
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="465"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -21460,60 +21568,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -21636,16 +21744,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -21696,18 +21804,18 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433" t="s">
+      <c r="A17" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -21728,48 +21836,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="436" t="s">
+      <c r="A19" s="435" t="s">
         <v>501</v>
       </c>
-      <c r="B19" s="437"/>
-      <c r="C19" s="437"/>
-      <c r="D19" s="437"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="437"/>
-      <c r="G19" s="437"/>
-      <c r="H19" s="437"/>
-      <c r="I19" s="437"/>
-      <c r="J19" s="438"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="437"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="437"/>
-      <c r="D20" s="437"/>
-      <c r="E20" s="437"/>
-      <c r="F20" s="437"/>
-      <c r="G20" s="437"/>
-      <c r="H20" s="437"/>
-      <c r="I20" s="437"/>
-      <c r="J20" s="438"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="436"/>
+      <c r="J20" s="437"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
-      <c r="J21" s="438"/>
+      <c r="A21" s="435"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
+      <c r="J21" s="437"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -21790,76 +21898,76 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="442"/>
-      <c r="B23" s="443"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="443"/>
-      <c r="E23" s="443"/>
-      <c r="F23" s="443"/>
-      <c r="G23" s="443"/>
-      <c r="H23" s="443"/>
-      <c r="I23" s="443"/>
-      <c r="J23" s="444"/>
+      <c r="A23" s="441"/>
+      <c r="B23" s="442"/>
+      <c r="C23" s="442"/>
+      <c r="D23" s="442"/>
+      <c r="E23" s="442"/>
+      <c r="F23" s="442"/>
+      <c r="G23" s="442"/>
+      <c r="H23" s="442"/>
+      <c r="I23" s="442"/>
+      <c r="J23" s="443"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="442"/>
-      <c r="B24" s="443"/>
-      <c r="C24" s="443"/>
-      <c r="D24" s="443"/>
-      <c r="E24" s="443"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="443"/>
-      <c r="H24" s="443"/>
-      <c r="I24" s="443"/>
-      <c r="J24" s="444"/>
+      <c r="A24" s="441"/>
+      <c r="B24" s="442"/>
+      <c r="C24" s="442"/>
+      <c r="D24" s="442"/>
+      <c r="E24" s="442"/>
+      <c r="F24" s="442"/>
+      <c r="G24" s="442"/>
+      <c r="H24" s="442"/>
+      <c r="I24" s="442"/>
+      <c r="J24" s="443"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="445"/>
-      <c r="B25" s="446"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="446"/>
-      <c r="F25" s="446"/>
-      <c r="G25" s="446"/>
-      <c r="H25" s="446"/>
-      <c r="I25" s="446"/>
-      <c r="J25" s="447"/>
+      <c r="A25" s="444"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="445"/>
+      <c r="D25" s="445"/>
+      <c r="E25" s="445"/>
+      <c r="F25" s="445"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="445"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="446"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="448"/>
-      <c r="B26" s="446"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="446"/>
-      <c r="F26" s="446"/>
-      <c r="G26" s="446"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="447"/>
+      <c r="A26" s="447"/>
+      <c r="B26" s="445"/>
+      <c r="C26" s="445"/>
+      <c r="D26" s="445"/>
+      <c r="E26" s="445"/>
+      <c r="F26" s="445"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="445"/>
+      <c r="J26" s="446"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="448"/>
-      <c r="B27" s="446"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="446"/>
-      <c r="E27" s="446"/>
-      <c r="F27" s="446"/>
-      <c r="G27" s="446"/>
-      <c r="H27" s="446"/>
-      <c r="I27" s="446"/>
-      <c r="J27" s="447"/>
+      <c r="A27" s="447"/>
+      <c r="B27" s="445"/>
+      <c r="C27" s="445"/>
+      <c r="D27" s="445"/>
+      <c r="E27" s="445"/>
+      <c r="F27" s="445"/>
+      <c r="G27" s="445"/>
+      <c r="H27" s="445"/>
+      <c r="I27" s="445"/>
+      <c r="J27" s="446"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -21880,18 +21988,18 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433" t="s">
+      <c r="A29" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -21912,34 +22020,34 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="439" t="str">
+      <c r="A31" s="438" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -21960,18 +22068,18 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433" t="s">
+      <c r="A34" s="432" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -21992,34 +22100,34 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="439" t="str">
+      <c r="A36" s="438" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -22166,12 +22274,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="431" t="str">
+      <c r="C47" s="430" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D47" s="431"/>
-      <c r="E47" s="431"/>
+      <c r="D47" s="430"/>
+      <c r="E47" s="430"/>
       <c r="F47" s="22"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -22187,12 +22295,12 @@
       <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="431" t="str">
+      <c r="C48" s="430" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="431"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="8"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -22208,12 +22316,12 @@
       <c r="B49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="432" t="str">
+      <c r="C49" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D49" s="432"/>
-      <c r="E49" s="432"/>
+      <c r="D49" s="431"/>
+      <c r="E49" s="431"/>
       <c r="F49" s="8"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -22301,30 +22409,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="467" t="str">
+      <c r="E1" s="466" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="454"/>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="468" t="str">
+      <c r="A2" s="453"/>
+      <c r="B2" s="453"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="467" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="F2" s="468"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="468"/>
-      <c r="J2" s="468"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
@@ -22341,60 +22449,60 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="464" t="s">
+      <c r="A4" s="463" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="465"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
-      <c r="I4" s="465"/>
-      <c r="J4" s="466"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="464"/>
+      <c r="F4" s="464"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
+      <c r="I4" s="464"/>
+      <c r="J4" s="465"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="464" t="s">
+      <c r="A5" s="463" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
+      <c r="B5" s="464"/>
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="465"/>
     </row>
     <row r="6" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="464" t="s">
+      <c r="A6" s="463" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="465"/>
-      <c r="C6" s="465"/>
-      <c r="D6" s="465"/>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="465"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
+      <c r="B6" s="464"/>
+      <c r="C6" s="464"/>
+      <c r="D6" s="464"/>
+      <c r="E6" s="464"/>
+      <c r="F6" s="464"/>
+      <c r="G6" s="464"/>
+      <c r="H6" s="464"/>
+      <c r="I6" s="464"/>
+      <c r="J6" s="465"/>
     </row>
     <row r="7" spans="1:10" s="380" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="464" t="s">
+      <c r="A7" s="463" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="465"/>
-      <c r="D7" s="465"/>
-      <c r="E7" s="465"/>
-      <c r="F7" s="465"/>
-      <c r="G7" s="465"/>
-      <c r="H7" s="465"/>
-      <c r="I7" s="465"/>
-      <c r="J7" s="466"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
+      <c r="D7" s="464"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
+      <c r="G7" s="464"/>
+      <c r="H7" s="464"/>
+      <c r="I7" s="464"/>
+      <c r="J7" s="465"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
@@ -22450,21 +22558,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="469" t="str">
+      <c r="A1" s="468" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B1" s="470"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472" t="str">
+      <c r="B1" s="469"/>
+      <c r="C1" s="470"/>
+      <c r="D1" s="471" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="474"/>
+      <c r="E1" s="472"/>
+      <c r="F1" s="472"/>
+      <c r="G1" s="472"/>
+      <c r="H1" s="472"/>
+      <c r="I1" s="473"/>
       <c r="J1" s="38" t="s">
         <v>39</v>
       </c>
@@ -22491,17 +22599,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="475" t="s">
+      <c r="F3" s="474" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="476"/>
-      <c r="H3" s="477"/>
-      <c r="I3" s="478"/>
-      <c r="J3" s="479" t="s">
+      <c r="G3" s="475"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="477"/>
+      <c r="J3" s="478" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="479"/>
-      <c r="L3" s="480"/>
+      <c r="K3" s="478"/>
+      <c r="L3" s="479"/>
       <c r="M3" s="44" t="s">
         <v>46</v>
       </c>
@@ -22961,60 +23069,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="449"/>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="455" t="s">
+      <c r="A1" s="448"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="454" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="457"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="456"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="451"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="458" t="s">
+      <c r="A2" s="450"/>
+      <c r="B2" s="451"/>
+      <c r="C2" s="451"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="460"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="459"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="451"/>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="458" t="s">
+      <c r="A3" s="450"/>
+      <c r="B3" s="451"/>
+      <c r="C3" s="451"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="451"/>
+      <c r="G3" s="457" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="460"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="453"/>
-      <c r="B4" s="454"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
-      <c r="G4" s="461" t="s">
+      <c r="A4" s="452"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="463"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
@@ -23137,16 +23245,16 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="433"/>
-      <c r="B13" s="434"/>
-      <c r="C13" s="434"/>
-      <c r="D13" s="434"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="434"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="434"/>
-      <c r="I13" s="434"/>
-      <c r="J13" s="435"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="433"/>
+      <c r="C13" s="433"/>
+      <c r="D13" s="433"/>
+      <c r="E13" s="433"/>
+      <c r="F13" s="433"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="433"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -23197,16 +23305,16 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="433"/>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="434"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="435"/>
+      <c r="A17" s="432"/>
+      <c r="B17" s="433"/>
+      <c r="C17" s="433"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+      <c r="F17" s="433"/>
+      <c r="G17" s="433"/>
+      <c r="H17" s="433"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -23227,48 +23335,48 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="481" t="s">
+      <c r="A19" s="480" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="482"/>
-      <c r="C19" s="482"/>
-      <c r="D19" s="482"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="482"/>
-      <c r="G19" s="482"/>
-      <c r="H19" s="482"/>
-      <c r="I19" s="482"/>
-      <c r="J19" s="483"/>
+      <c r="B19" s="481"/>
+      <c r="C19" s="481"/>
+      <c r="D19" s="481"/>
+      <c r="E19" s="481"/>
+      <c r="F19" s="481"/>
+      <c r="G19" s="481"/>
+      <c r="H19" s="481"/>
+      <c r="I19" s="481"/>
+      <c r="J19" s="482"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="481"/>
-      <c r="B20" s="482"/>
-      <c r="C20" s="482"/>
-      <c r="D20" s="482"/>
-      <c r="E20" s="482"/>
-      <c r="F20" s="482"/>
-      <c r="G20" s="482"/>
-      <c r="H20" s="482"/>
-      <c r="I20" s="482"/>
-      <c r="J20" s="483"/>
+      <c r="A20" s="480"/>
+      <c r="B20" s="481"/>
+      <c r="C20" s="481"/>
+      <c r="D20" s="481"/>
+      <c r="E20" s="481"/>
+      <c r="F20" s="481"/>
+      <c r="G20" s="481"/>
+      <c r="H20" s="481"/>
+      <c r="I20" s="481"/>
+      <c r="J20" s="482"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="481"/>
-      <c r="B21" s="482"/>
-      <c r="C21" s="482"/>
-      <c r="D21" s="482"/>
-      <c r="E21" s="482"/>
-      <c r="F21" s="482"/>
-      <c r="G21" s="482"/>
-      <c r="H21" s="482"/>
-      <c r="I21" s="482"/>
-      <c r="J21" s="483"/>
+      <c r="A21" s="480"/>
+      <c r="B21" s="481"/>
+      <c r="C21" s="481"/>
+      <c r="D21" s="481"/>
+      <c r="E21" s="481"/>
+      <c r="F21" s="481"/>
+      <c r="G21" s="481"/>
+      <c r="H21" s="481"/>
+      <c r="I21" s="481"/>
+      <c r="J21" s="482"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -23289,82 +23397,82 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="484" t="str">
+      <c r="A23" s="483" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="B23" s="485"/>
-      <c r="C23" s="485"/>
-      <c r="D23" s="485"/>
-      <c r="E23" s="485"/>
-      <c r="F23" s="485"/>
-      <c r="G23" s="485"/>
-      <c r="H23" s="485"/>
-      <c r="I23" s="485"/>
-      <c r="J23" s="486"/>
+      <c r="B23" s="484"/>
+      <c r="C23" s="484"/>
+      <c r="D23" s="484"/>
+      <c r="E23" s="484"/>
+      <c r="F23" s="484"/>
+      <c r="G23" s="484"/>
+      <c r="H23" s="484"/>
+      <c r="I23" s="484"/>
+      <c r="J23" s="485"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="484"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="485"/>
-      <c r="D24" s="485"/>
-      <c r="E24" s="485"/>
-      <c r="F24" s="485"/>
-      <c r="G24" s="485"/>
-      <c r="H24" s="485"/>
-      <c r="I24" s="485"/>
-      <c r="J24" s="486"/>
+      <c r="A24" s="483"/>
+      <c r="B24" s="484"/>
+      <c r="C24" s="484"/>
+      <c r="D24" s="484"/>
+      <c r="E24" s="484"/>
+      <c r="F24" s="484"/>
+      <c r="G24" s="484"/>
+      <c r="H24" s="484"/>
+      <c r="I24" s="484"/>
+      <c r="J24" s="485"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="487" t="str">
+      <c r="A25" s="486" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="B25" s="488"/>
-      <c r="C25" s="488"/>
-      <c r="D25" s="488"/>
-      <c r="E25" s="488"/>
-      <c r="F25" s="488"/>
-      <c r="G25" s="488"/>
-      <c r="H25" s="488"/>
-      <c r="I25" s="488"/>
-      <c r="J25" s="489"/>
+      <c r="B25" s="487"/>
+      <c r="C25" s="487"/>
+      <c r="D25" s="487"/>
+      <c r="E25" s="487"/>
+      <c r="F25" s="487"/>
+      <c r="G25" s="487"/>
+      <c r="H25" s="487"/>
+      <c r="I25" s="487"/>
+      <c r="J25" s="488"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="490"/>
-      <c r="B26" s="488"/>
-      <c r="C26" s="488"/>
-      <c r="D26" s="488"/>
-      <c r="E26" s="488"/>
-      <c r="F26" s="488"/>
-      <c r="G26" s="488"/>
-      <c r="H26" s="488"/>
-      <c r="I26" s="488"/>
-      <c r="J26" s="489"/>
+      <c r="A26" s="489"/>
+      <c r="B26" s="487"/>
+      <c r="C26" s="487"/>
+      <c r="D26" s="487"/>
+      <c r="E26" s="487"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="487"/>
+      <c r="H26" s="487"/>
+      <c r="I26" s="487"/>
+      <c r="J26" s="488"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="490"/>
-      <c r="B27" s="488"/>
-      <c r="C27" s="488"/>
-      <c r="D27" s="488"/>
-      <c r="E27" s="488"/>
-      <c r="F27" s="488"/>
-      <c r="G27" s="488"/>
-      <c r="H27" s="488"/>
-      <c r="I27" s="488"/>
-      <c r="J27" s="489"/>
+      <c r="A27" s="489"/>
+      <c r="B27" s="487"/>
+      <c r="C27" s="487"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="487"/>
+      <c r="H27" s="487"/>
+      <c r="I27" s="487"/>
+      <c r="J27" s="488"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -23385,16 +23493,16 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="433"/>
-      <c r="B29" s="434"/>
-      <c r="C29" s="434"/>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="435"/>
+      <c r="A29" s="432"/>
+      <c r="B29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="434"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -23415,31 +23523,31 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="439"/>
-      <c r="B31" s="440"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="440"/>
-      <c r="E31" s="440"/>
-      <c r="F31" s="440"/>
-      <c r="G31" s="440"/>
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
-      <c r="J31" s="441"/>
+      <c r="A31" s="438"/>
+      <c r="B31" s="439"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="439"/>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
-      <c r="H32" s="440"/>
-      <c r="I32" s="440"/>
-      <c r="J32" s="441"/>
+      <c r="A32" s="438"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="439"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="439"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="439"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="440"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -23460,16 +23568,16 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="433"/>
-      <c r="B34" s="434"/>
-      <c r="C34" s="434"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="434"/>
-      <c r="G34" s="434"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="434"/>
-      <c r="J34" s="435"/>
+      <c r="A34" s="432"/>
+      <c r="B34" s="433"/>
+      <c r="C34" s="433"/>
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="434"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -23490,31 +23598,31 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="439"/>
-      <c r="B36" s="440"/>
-      <c r="C36" s="440"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="440"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="441"/>
+      <c r="A36" s="438"/>
+      <c r="B36" s="439"/>
+      <c r="C36" s="439"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="439"/>
+      <c r="J36" s="440"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="439"/>
-      <c r="B37" s="440"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="440"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="441"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="440"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -23631,12 +23739,12 @@
       <c r="B45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="431" t="str">
+      <c r="C45" s="430" t="str">
         <f>ZAD!C6</f>
         <v>Paul Peter Fischer</v>
       </c>
-      <c r="D45" s="431"/>
-      <c r="E45" s="431"/>
+      <c r="D45" s="430"/>
+      <c r="E45" s="430"/>
       <c r="F45" s="37"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -23652,12 +23760,12 @@
       <c r="B46" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="431" t="str">
+      <c r="C46" s="430" t="str">
         <f>ZAD!C7</f>
         <v>730 874 209</v>
       </c>
-      <c r="D46" s="431"/>
-      <c r="E46" s="431"/>
+      <c r="D46" s="430"/>
+      <c r="E46" s="430"/>
       <c r="F46" s="8"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -23673,12 +23781,12 @@
       <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="432" t="str">
+      <c r="C47" s="431" t="str">
         <f>ZAD!C8</f>
         <v>05/2022</v>
       </c>
-      <c r="D47" s="432"/>
-      <c r="E47" s="432"/>
+      <c r="D47" s="431"/>
+      <c r="E47" s="431"/>
       <c r="F47" s="8"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -23764,30 +23872,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="467" t="str">
+      <c r="E1" s="466" t="str">
         <f>ZAD!C4</f>
         <v>DC-Jílové,ppč. 3669, přípojka NN</v>
       </c>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="491"/>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492" t="str">
+      <c r="A2" s="490"/>
+      <c r="B2" s="490"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="490"/>
+      <c r="E2" s="491" t="str">
         <f>ZAD!C5</f>
         <v>IP-12-4009400</v>
       </c>
-      <c r="F2" s="492"/>
-      <c r="G2" s="492"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="492"/>
-      <c r="J2" s="492"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="149" t="s">
@@ -23804,102 +23912,102 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="493" t="s">
+      <c r="A4" s="492" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
-      <c r="F4" s="493"/>
-      <c r="G4" s="493"/>
-      <c r="H4" s="493"/>
-      <c r="I4" s="493"/>
-      <c r="J4" s="493"/>
+      <c r="B4" s="492"/>
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="492"/>
+      <c r="H4" s="492"/>
+      <c r="I4" s="492"/>
+      <c r="J4" s="492"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="493" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="494"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="494"/>
-      <c r="J5" s="494"/>
+      <c r="B5" s="493"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
     </row>
     <row r="6" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="494" t="s">
+      <c r="A6" s="493" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="494"/>
-      <c r="C6" s="494"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="494"/>
-      <c r="F6" s="494"/>
-      <c r="G6" s="494"/>
-      <c r="H6" s="494"/>
-      <c r="I6" s="494"/>
-      <c r="J6" s="494"/>
+      <c r="B6" s="493"/>
+      <c r="C6" s="493"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="493"/>
+      <c r="H6" s="493"/>
+      <c r="I6" s="493"/>
+      <c r="J6" s="493"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="493" t="s">
+      <c r="A7" s="492" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
-      <c r="F7" s="493"/>
-      <c r="G7" s="493"/>
-      <c r="H7" s="493"/>
-      <c r="I7" s="493"/>
-      <c r="J7" s="493"/>
+      <c r="B7" s="492"/>
+      <c r="C7" s="492"/>
+      <c r="D7" s="492"/>
+      <c r="E7" s="492"/>
+      <c r="F7" s="492"/>
+      <c r="G7" s="492"/>
+      <c r="H7" s="492"/>
+      <c r="I7" s="492"/>
+      <c r="J7" s="492"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="493" t="s">
+      <c r="A8" s="492" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="493"/>
-      <c r="C8" s="493"/>
-      <c r="D8" s="493"/>
-      <c r="E8" s="493"/>
-      <c r="F8" s="493"/>
-      <c r="G8" s="493"/>
-      <c r="H8" s="493"/>
-      <c r="I8" s="493"/>
-      <c r="J8" s="493"/>
+      <c r="B8" s="492"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="492"/>
+      <c r="E8" s="492"/>
+      <c r="F8" s="492"/>
+      <c r="G8" s="492"/>
+      <c r="H8" s="492"/>
+      <c r="I8" s="492"/>
+      <c r="J8" s="492"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="493" t="s">
+      <c r="A9" s="492" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="493"/>
-      <c r="C9" s="493"/>
-      <c r="D9" s="493"/>
-      <c r="E9" s="493"/>
-      <c r="F9" s="493"/>
-      <c r="G9" s="493"/>
-      <c r="H9" s="493"/>
-      <c r="I9" s="493"/>
-      <c r="J9" s="493"/>
+      <c r="B9" s="492"/>
+      <c r="C9" s="492"/>
+      <c r="D9" s="492"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="492"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="493" t="s">
+      <c r="A10" s="492" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="493"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="493"/>
-      <c r="E10" s="493"/>
-      <c r="F10" s="493"/>
-      <c r="G10" s="493"/>
-      <c r="H10" s="493"/>
-      <c r="I10" s="493"/>
-      <c r="J10" s="493"/>
+      <c r="B10" s="492"/>
+      <c r="C10" s="492"/>
+      <c r="D10" s="492"/>
+      <c r="E10" s="492"/>
+      <c r="F10" s="492"/>
+      <c r="G10" s="492"/>
+      <c r="H10" s="492"/>
+      <c r="I10" s="492"/>
+      <c r="J10" s="492"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -23945,238 +24053,238 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="495" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="496"/>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
-      <c r="F1" s="496"/>
-      <c r="G1" s="496"/>
-      <c r="H1" s="496"/>
-      <c r="I1" s="496"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
     </row>
     <row r="2" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="496" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="498"/>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="498"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="497"/>
+      <c r="G2" s="497"/>
+      <c r="H2" s="497"/>
+      <c r="I2" s="497"/>
     </row>
     <row r="3" spans="1:9" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="497" t="s">
+      <c r="A3" s="496" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="498"/>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="498"/>
-      <c r="F3" s="498"/>
-      <c r="G3" s="498"/>
-      <c r="H3" s="498"/>
-      <c r="I3" s="498"/>
+      <c r="B3" s="497"/>
+      <c r="C3" s="497"/>
+      <c r="D3" s="497"/>
+      <c r="E3" s="497"/>
+      <c r="F3" s="497"/>
+      <c r="G3" s="497"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="497"/>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="498" t="s">
+      <c r="A4" s="497" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
+      <c r="F4" s="497"/>
+      <c r="G4" s="497"/>
+      <c r="H4" s="497"/>
+      <c r="I4" s="497"/>
     </row>
     <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="497" t="s">
+      <c r="A5" s="496" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="498"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
-      <c r="G5" s="498"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="498"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="497"/>
+      <c r="I5" s="497"/>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="499" t="s">
+      <c r="A6" s="498" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="499"/>
-      <c r="C6" s="499"/>
-      <c r="D6" s="499"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="499"/>
-      <c r="G6" s="499"/>
-      <c r="H6" s="499"/>
-      <c r="I6" s="499"/>
+      <c r="B6" s="498"/>
+      <c r="C6" s="498"/>
+      <c r="D6" s="498"/>
+      <c r="E6" s="498"/>
+      <c r="F6" s="498"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="498"/>
+      <c r="I6" s="498"/>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="497" t="s">
+      <c r="A7" s="496" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="497"/>
-      <c r="C7" s="497"/>
-      <c r="D7" s="497"/>
-      <c r="E7" s="497"/>
-      <c r="F7" s="497"/>
-      <c r="G7" s="497"/>
-      <c r="H7" s="497"/>
-      <c r="I7" s="497"/>
+      <c r="B7" s="496"/>
+      <c r="C7" s="496"/>
+      <c r="D7" s="496"/>
+      <c r="E7" s="496"/>
+      <c r="F7" s="496"/>
+      <c r="G7" s="496"/>
+      <c r="H7" s="496"/>
+      <c r="I7" s="496"/>
     </row>
     <row r="8" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="499" t="s">
+      <c r="A8" s="498" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="499"/>
-      <c r="C8" s="499"/>
-      <c r="D8" s="499"/>
-      <c r="E8" s="499"/>
-      <c r="F8" s="499"/>
-      <c r="G8" s="499"/>
-      <c r="H8" s="499"/>
-      <c r="I8" s="499"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="498"/>
+      <c r="F8" s="498"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="498"/>
+      <c r="I8" s="498"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="497" t="s">
+      <c r="A9" s="496" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="497"/>
-      <c r="C9" s="497"/>
-      <c r="D9" s="497"/>
-      <c r="E9" s="497"/>
-      <c r="F9" s="497"/>
-      <c r="G9" s="497"/>
-      <c r="H9" s="497"/>
-      <c r="I9" s="497"/>
+      <c r="B9" s="496"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="496"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="496"/>
+      <c r="G9" s="496"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="496"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="499" t="s">
+      <c r="A10" s="498" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="499"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="499"/>
-      <c r="E10" s="499"/>
-      <c r="F10" s="499"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="499"/>
-      <c r="I10" s="499"/>
+      <c r="B10" s="498"/>
+      <c r="C10" s="498"/>
+      <c r="D10" s="498"/>
+      <c r="E10" s="498"/>
+      <c r="F10" s="498"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="498"/>
+      <c r="I10" s="498"/>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="500" t="s">
+      <c r="A11" s="499" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="500"/>
-      <c r="C11" s="500"/>
-      <c r="D11" s="500"/>
-      <c r="E11" s="500"/>
-      <c r="F11" s="500"/>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
+      <c r="B11" s="499"/>
+      <c r="C11" s="499"/>
+      <c r="D11" s="499"/>
+      <c r="E11" s="499"/>
+      <c r="F11" s="499"/>
+      <c r="G11" s="499"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="499"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="495" t="s">
+      <c r="A12" s="494" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="495"/>
-      <c r="C12" s="495"/>
-      <c r="D12" s="495"/>
-      <c r="E12" s="495"/>
-      <c r="F12" s="495"/>
-      <c r="G12" s="495"/>
-      <c r="H12" s="495"/>
-      <c r="I12" s="495"/>
+      <c r="B12" s="494"/>
+      <c r="C12" s="494"/>
+      <c r="D12" s="494"/>
+      <c r="E12" s="494"/>
+      <c r="F12" s="494"/>
+      <c r="G12" s="494"/>
+      <c r="H12" s="494"/>
+      <c r="I12" s="494"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="500" t="s">
+      <c r="A13" s="499" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="500"/>
-      <c r="C13" s="500"/>
-      <c r="D13" s="500"/>
-      <c r="E13" s="500"/>
-      <c r="F13" s="500"/>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
+      <c r="B13" s="499"/>
+      <c r="C13" s="499"/>
+      <c r="D13" s="499"/>
+      <c r="E13" s="499"/>
+      <c r="F13" s="499"/>
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="495" t="s">
+      <c r="A14" s="494" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="495"/>
-      <c r="C14" s="495"/>
-      <c r="D14" s="495"/>
-      <c r="E14" s="495"/>
-      <c r="F14" s="495"/>
-      <c r="G14" s="495"/>
-      <c r="H14" s="495"/>
-      <c r="I14" s="495"/>
+      <c r="B14" s="494"/>
+      <c r="C14" s="494"/>
+      <c r="D14" s="494"/>
+      <c r="E14" s="494"/>
+      <c r="F14" s="494"/>
+      <c r="G14" s="494"/>
+      <c r="H14" s="494"/>
+      <c r="I14" s="494"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="500" t="s">
+      <c r="A15" s="499" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="500"/>
-      <c r="C15" s="500"/>
-      <c r="D15" s="500"/>
-      <c r="E15" s="500"/>
-      <c r="F15" s="500"/>
-      <c r="G15" s="500"/>
-      <c r="H15" s="500"/>
-      <c r="I15" s="500"/>
+      <c r="B15" s="499"/>
+      <c r="C15" s="499"/>
+      <c r="D15" s="499"/>
+      <c r="E15" s="499"/>
+      <c r="F15" s="499"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="499"/>
+      <c r="I15" s="499"/>
     </row>
     <row r="16" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="495" t="s">
+      <c r="A16" s="494" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="495"/>
-      <c r="C16" s="495"/>
-      <c r="D16" s="495"/>
-      <c r="E16" s="495"/>
-      <c r="F16" s="495"/>
-      <c r="G16" s="495"/>
-      <c r="H16" s="495"/>
-      <c r="I16" s="495"/>
+      <c r="B16" s="494"/>
+      <c r="C16" s="494"/>
+      <c r="D16" s="494"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="494"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="494"/>
+      <c r="I16" s="494"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="500" t="s">
+      <c r="A17" s="499" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="500"/>
-      <c r="C17" s="500"/>
-      <c r="D17" s="500"/>
-      <c r="E17" s="500"/>
-      <c r="F17" s="500"/>
-      <c r="G17" s="500"/>
-      <c r="H17" s="500"/>
-      <c r="I17" s="500"/>
+      <c r="B17" s="499"/>
+      <c r="C17" s="499"/>
+      <c r="D17" s="499"/>
+      <c r="E17" s="499"/>
+      <c r="F17" s="499"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="499"/>
+      <c r="I17" s="499"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="495" t="s">
+      <c r="A18" s="494" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="495"/>
-      <c r="C18" s="495"/>
-      <c r="D18" s="495"/>
-      <c r="E18" s="495"/>
-      <c r="F18" s="495"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
+      <c r="B18" s="494"/>
+      <c r="C18" s="494"/>
+      <c r="D18" s="494"/>
+      <c r="E18" s="494"/>
+      <c r="F18" s="494"/>
+      <c r="G18" s="494"/>
+      <c r="H18" s="494"/>
+      <c r="I18" s="494"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -24218,186 +24326,186 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="500" t="s">
+      <c r="A1" s="499" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="500"/>
-      <c r="I1" s="500"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
+      <c r="H1" s="499"/>
+      <c r="I1" s="499"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="495" t="s">
+      <c r="A2" s="494" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="495"/>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="495"/>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
+      <c r="B2" s="494"/>
+      <c r="C2" s="494"/>
+      <c r="D2" s="494"/>
+      <c r="E2" s="494"/>
+      <c r="F2" s="494"/>
+      <c r="G2" s="494"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="494"/>
     </row>
     <row r="3" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="500" t="s">
+      <c r="A3" s="499" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="500"/>
-      <c r="C3" s="500"/>
-      <c r="D3" s="500"/>
-      <c r="E3" s="500"/>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="500"/>
+      <c r="B3" s="499"/>
+      <c r="C3" s="499"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="499"/>
+      <c r="F3" s="499"/>
+      <c r="G3" s="499"/>
+      <c r="H3" s="499"/>
+      <c r="I3" s="499"/>
     </row>
     <row r="4" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="495" t="s">
+      <c r="A4" s="494" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="495"/>
-      <c r="G4" s="495"/>
-      <c r="H4" s="495"/>
-      <c r="I4" s="495"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
+      <c r="D4" s="494"/>
+      <c r="E4" s="494"/>
+      <c r="F4" s="494"/>
+      <c r="G4" s="494"/>
+      <c r="H4" s="494"/>
+      <c r="I4" s="494"/>
     </row>
     <row r="5" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="500" t="s">
+      <c r="A5" s="499" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="500"/>
-      <c r="C5" s="500"/>
-      <c r="D5" s="500"/>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="500"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="495" t="s">
+      <c r="A6" s="494" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="495"/>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="495"/>
-      <c r="G6" s="495"/>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
+      <c r="B6" s="494"/>
+      <c r="C6" s="494"/>
+      <c r="D6" s="494"/>
+      <c r="E6" s="494"/>
+      <c r="F6" s="494"/>
+      <c r="G6" s="494"/>
+      <c r="H6" s="494"/>
+      <c r="I6" s="494"/>
     </row>
     <row r="7" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="500" t="s">
+      <c r="A7" s="499" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="500"/>
-      <c r="C7" s="500"/>
-      <c r="D7" s="500"/>
-      <c r="E7" s="500"/>
-      <c r="F7" s="500"/>
-      <c r="G7" s="500"/>
-      <c r="H7" s="500"/>
-      <c r="I7" s="500"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
+      <c r="F7" s="499"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="499"/>
+      <c r="I7" s="499"/>
     </row>
     <row r="8" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="495" t="s">
+      <c r="A8" s="494" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="495"/>
-      <c r="C8" s="495"/>
-      <c r="D8" s="495"/>
-      <c r="E8" s="495"/>
-      <c r="F8" s="495"/>
-      <c r="G8" s="495"/>
-      <c r="H8" s="495"/>
-      <c r="I8" s="495"/>
+      <c r="B8" s="494"/>
+      <c r="C8" s="494"/>
+      <c r="D8" s="494"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="494"/>
+      <c r="G8" s="494"/>
+      <c r="H8" s="494"/>
+      <c r="I8" s="494"/>
     </row>
     <row r="9" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="496" t="s">
+      <c r="A9" s="495" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="496"/>
-      <c r="C9" s="496"/>
-      <c r="D9" s="496"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="496"/>
-      <c r="G9" s="496"/>
-      <c r="H9" s="496"/>
-      <c r="I9" s="496"/>
+      <c r="B9" s="495"/>
+      <c r="C9" s="495"/>
+      <c r="D9" s="495"/>
+      <c r="E9" s="495"/>
+      <c r="F9" s="495"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="495"/>
+      <c r="I9" s="495"/>
     </row>
     <row r="10" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="501" t="s">
+      <c r="A10" s="500" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="502"/>
-      <c r="C10" s="502"/>
-      <c r="D10" s="502"/>
-      <c r="E10" s="502"/>
-      <c r="F10" s="502"/>
-      <c r="G10" s="502"/>
-      <c r="H10" s="502"/>
-      <c r="I10" s="502"/>
+      <c r="B10" s="501"/>
+      <c r="C10" s="501"/>
+      <c r="D10" s="501"/>
+      <c r="E10" s="501"/>
+      <c r="F10" s="501"/>
+      <c r="G10" s="501"/>
+      <c r="H10" s="501"/>
+      <c r="I10" s="501"/>
     </row>
     <row r="11" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="496" t="s">
+      <c r="A11" s="495" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="496"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="496"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
+      <c r="B11" s="495"/>
+      <c r="C11" s="495"/>
+      <c r="D11" s="495"/>
+      <c r="E11" s="495"/>
+      <c r="F11" s="495"/>
+      <c r="G11" s="495"/>
+      <c r="H11" s="495"/>
+      <c r="I11" s="495"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="497" t="s">
+      <c r="A12" s="496" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="497"/>
-      <c r="C12" s="497"/>
-      <c r="D12" s="497"/>
-      <c r="E12" s="497"/>
-      <c r="F12" s="497"/>
-      <c r="G12" s="497"/>
-      <c r="H12" s="497"/>
-      <c r="I12" s="497"/>
+      <c r="B12" s="496"/>
+      <c r="C12" s="496"/>
+      <c r="D12" s="496"/>
+      <c r="E12" s="496"/>
+      <c r="F12" s="496"/>
+      <c r="G12" s="496"/>
+      <c r="H12" s="496"/>
+      <c r="I12" s="496"/>
     </row>
     <row r="13" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="496" t="s">
+      <c r="A13" s="495" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="496"/>
-      <c r="C13" s="496"/>
-      <c r="D13" s="496"/>
-      <c r="E13" s="496"/>
-      <c r="F13" s="496"/>
-      <c r="G13" s="496"/>
-      <c r="H13" s="496"/>
-      <c r="I13" s="496"/>
+      <c r="B13" s="495"/>
+      <c r="C13" s="495"/>
+      <c r="D13" s="495"/>
+      <c r="E13" s="495"/>
+      <c r="F13" s="495"/>
+      <c r="G13" s="495"/>
+      <c r="H13" s="495"/>
+      <c r="I13" s="495"/>
     </row>
     <row r="14" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="497" t="s">
+      <c r="A14" s="496" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="497"/>
-      <c r="C14" s="497"/>
-      <c r="D14" s="497"/>
-      <c r="E14" s="497"/>
-      <c r="F14" s="497"/>
-      <c r="G14" s="497"/>
-      <c r="H14" s="497"/>
-      <c r="I14" s="497"/>
+      <c r="B14" s="496"/>
+      <c r="C14" s="496"/>
+      <c r="D14" s="496"/>
+      <c r="E14" s="496"/>
+      <c r="F14" s="496"/>
+      <c r="G14" s="496"/>
+      <c r="H14" s="496"/>
+      <c r="I14" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="14">
